--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9482" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD4FA3F-8014-4EE2-93C0-D585E0F2D08C}"/>
+  <xr:revisionPtr revIDLastSave="9508" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4505805F-9AE5-464C-8680-C17179ED0715}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="738">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2259,6 +2259,12 @@
   </si>
   <si>
     <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>QATAR LADIES OPEN</t>
   </si>
 </sst>
 </file>
@@ -4809,10 +4815,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5116,20 +5118,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5252,21 +5254,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5306,7 +5308,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5320,7 +5322,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5368,9 +5370,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>737</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5388,7 +5390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>374</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5484,7 +5486,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5560,7 +5562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>541</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5608,7 +5610,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5622,9 +5624,9 @@
         <v>543</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -5642,7 +5644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5676,7 +5678,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5738,7 +5740,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5786,7 +5788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5800,7 +5802,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>551</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -5834,7 +5836,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -5896,7 +5898,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -5938,7 +5940,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6068,7 +6070,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6152,7 +6154,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6186,7 +6188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6200,7 +6202,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>563</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6248,7 +6250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6330,7 +6332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6344,7 +6346,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6371,21 +6373,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6439,7 +6441,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6501,7 +6503,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>374</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6583,7 +6585,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6617,7 +6619,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>504</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6727,7 +6729,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6761,7 +6763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6823,7 +6825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6837,7 +6839,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6851,9 +6853,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -6871,7 +6873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +6901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -6933,7 +6935,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -6987,7 +6989,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>595</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7295,7 +7297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>563</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>604</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>608</v>
       </c>
@@ -7439,21 +7441,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7473,7 +7475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>614</v>
       </c>
@@ -7575,9 +7577,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>737</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -7595,7 +7597,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7609,7 +7611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>541</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7657,7 +7659,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7725,7 +7727,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>623</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>627</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7847,7 +7849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>629</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>475</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>563</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8169,7 +8171,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>640</v>
       </c>
@@ -8217,7 +8219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8293,7 +8295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8334,21 +8336,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8416,7 +8418,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8450,7 +8452,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8464,7 +8466,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8484,7 +8486,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8498,7 +8500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8512,7 +8514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8532,7 +8534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8560,7 +8562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8588,7 +8590,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>374</v>
       </c>
@@ -8608,7 +8610,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8788,7 +8790,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8802,7 +8804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -8850,7 +8852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>658</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -8912,9 +8914,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -8932,7 +8934,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>662</v>
       </c>
@@ -8966,7 +8968,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -8986,7 +8988,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9090,7 +9092,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9104,7 +9106,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9118,7 +9120,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9152,7 +9154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9180,7 +9182,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>341</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9228,7 +9230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9276,7 +9278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9290,7 +9292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9304,7 +9306,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9332,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9352,7 +9354,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9366,7 +9368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9380,7 +9382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9400,7 +9402,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9434,7 +9436,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9462,7 +9464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9476,7 +9478,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>563</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9530,7 +9532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>640</v>
       </c>
@@ -9564,7 +9566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9612,7 +9614,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9626,7 +9628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9667,21 +9669,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9721,7 +9723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9735,7 +9737,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9777,7 +9779,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9797,7 +9799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9881,7 +9883,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>614</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10025,7 +10027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>551</v>
       </c>
@@ -10065,7 +10067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10093,9 +10095,9 @@
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -10113,7 +10115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10127,7 +10129,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10161,7 +10163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10223,7 +10225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10285,7 +10287,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10299,7 +10301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10327,7 +10329,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10381,7 +10383,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10401,7 +10403,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10455,7 +10457,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>563</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10489,7 +10491,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10509,7 +10511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10523,7 +10525,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10537,7 +10539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10565,7 +10567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10613,7 +10615,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10640,21 +10642,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10708,7 +10710,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10742,7 +10744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10796,7 +10798,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10810,7 +10812,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>735</v>
       </c>
@@ -10844,7 +10846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -10858,7 +10860,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -10900,9 +10902,9 @@
         <v>710</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -10920,7 +10922,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -10940,7 +10942,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -10994,7 +10996,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11028,7 +11030,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11076,7 +11078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11090,7 +11092,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11110,7 +11112,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11130,7 +11132,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11158,7 +11160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>563</v>
       </c>
@@ -11178,7 +11180,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11198,7 +11200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11212,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11226,7 +11228,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11271,17 +11273,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11301,7 +11303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11349,7 +11351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11363,7 +11365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11383,7 +11385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11424,22 +11426,22 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -11459,7 +11461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -11481,7 +11483,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -11503,7 +11505,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -11525,7 +11527,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -11547,7 +11549,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -11569,7 +11571,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -11590,7 +11592,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -11611,7 +11613,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -11653,7 +11655,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -11674,7 +11676,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11716,7 +11718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -11737,7 +11739,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -11758,7 +11760,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -11779,7 +11781,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -11800,7 +11802,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -11825,7 +11827,7 @@
         <v>0.58528951486697967</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -11872,21 +11874,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11940,7 +11942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11954,7 +11956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11974,7 +11976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11994,7 +11996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -12008,7 +12010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -12050,7 +12052,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12067,7 +12069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -12078,7 +12080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -12109,7 +12111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12129,7 +12131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12143,7 +12145,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12163,7 +12165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12183,7 +12185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12211,7 +12213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12231,7 +12233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12245,7 +12247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12259,7 +12261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12279,7 +12281,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12299,7 +12301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12313,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12355,7 +12357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12375,7 +12377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12403,21 +12405,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12437,7 +12439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -12457,7 +12459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -12471,7 +12473,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -12485,7 +12487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12499,7 +12501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -12513,7 +12515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -12533,7 +12535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -12547,7 +12549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -12581,7 +12583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -12595,7 +12597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -12623,7 +12625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -12643,7 +12645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -12657,7 +12659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -12677,7 +12679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -12705,7 +12707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -12719,7 +12721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -12733,7 +12735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -12753,7 +12755,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -12773,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -12787,7 +12789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -12821,7 +12823,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -12835,7 +12837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -12875,7 +12877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -12889,7 +12891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -12909,7 +12911,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -12929,7 +12931,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -12943,7 +12945,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -12957,7 +12959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -12977,7 +12979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -12991,7 +12993,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13005,7 +13007,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13039,7 +13041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -13079,7 +13081,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -13099,7 +13101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -13119,7 +13121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -13133,7 +13135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -13147,7 +13149,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -13161,7 +13163,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13194,21 +13196,21 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13228,7 +13230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -13276,7 +13278,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -13290,9 +13292,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>737</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -13310,7 +13312,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -13324,7 +13326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13338,7 +13340,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -13352,7 +13354,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13372,7 +13374,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -13386,7 +13388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -13400,7 +13402,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -13420,7 +13422,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -13434,7 +13436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -13448,7 +13450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -13462,7 +13464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -13482,7 +13484,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -13524,7 +13526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -13544,7 +13546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -13558,7 +13560,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -13578,7 +13580,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -13612,7 +13614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -13626,7 +13628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -13640,7 +13642,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -13660,7 +13662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -13674,7 +13676,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -13688,7 +13690,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -13708,7 +13710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -13722,7 +13724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -13736,7 +13738,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -13770,7 +13772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -13784,7 +13786,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -13804,7 +13806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -13838,7 +13840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -13852,7 +13854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -13866,7 +13868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -13880,7 +13882,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -13900,7 +13902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -13928,7 +13930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -13942,7 +13944,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13956,7 +13958,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -13976,7 +13978,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -13990,7 +13992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14004,7 +14006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14032,7 +14034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14052,7 +14054,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14066,7 +14068,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -14080,7 +14082,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -14094,7 +14096,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -14114,7 +14116,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14134,7 +14136,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -14154,7 +14156,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -14168,7 +14170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -14182,7 +14184,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -14196,7 +14198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -14210,7 +14212,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -14230,7 +14232,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -14244,7 +14246,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14284,7 +14286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -14298,7 +14300,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -14312,7 +14314,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -14326,7 +14328,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -14340,7 +14342,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -14360,7 +14362,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -14374,7 +14376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -14388,7 +14390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -14402,7 +14404,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -14430,21 +14432,21 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14464,7 +14466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -14484,7 +14486,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -14498,7 +14500,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -14512,7 +14514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -14546,7 +14548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -14560,7 +14562,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -14580,7 +14582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -14608,7 +14610,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -14628,7 +14630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -14642,7 +14644,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -14676,7 +14678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -14690,7 +14692,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -14704,7 +14706,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -14718,7 +14720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -14752,7 +14754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -14766,7 +14768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -14780,7 +14782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -14794,7 +14796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -14814,7 +14816,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -14828,7 +14830,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -14842,7 +14844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -14856,7 +14858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -14876,7 +14878,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -14890,7 +14892,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -14904,7 +14906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -14918,7 +14920,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -14932,7 +14934,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14966,7 +14968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14980,7 +14982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -14994,7 +14996,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15008,7 +15010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15028,7 +15030,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15042,7 +15044,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15062,7 +15064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -15076,7 +15078,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -15090,7 +15092,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>327</v>
       </c>
@@ -15110,7 +15112,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -15124,7 +15126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -15152,7 +15154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -15166,7 +15168,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -15180,7 +15182,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -15214,7 +15216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -15228,7 +15230,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15248,7 +15250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -15262,7 +15264,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -15276,7 +15278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -15290,7 +15292,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -15304,7 +15306,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -15324,7 +15326,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -15338,7 +15340,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -15352,7 +15354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -15366,7 +15368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>341</v>
       </c>
@@ -15386,7 +15388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -15414,7 +15416,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -15428,7 +15430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -15442,7 +15444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -15462,7 +15464,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -15482,7 +15484,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -15496,7 +15498,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -15510,7 +15512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -15530,7 +15532,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -15550,7 +15552,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -15564,7 +15566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -15578,7 +15580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -15592,7 +15594,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -15606,7 +15608,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -15626,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -15640,7 +15642,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -15654,7 +15656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -15668,7 +15670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -15696,7 +15698,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -15710,7 +15712,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -15770,7 +15772,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -15784,7 +15786,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -15798,7 +15800,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -15812,7 +15814,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -15832,7 +15834,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -15852,7 +15854,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -15880,7 +15882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -15908,21 +15910,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15942,7 +15944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -15962,7 +15964,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -15982,7 +15984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -15996,7 +15998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16010,7 +16012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16024,7 +16026,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16041,7 +16043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>373</v>
       </c>
@@ -16052,7 +16054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>374</v>
       </c>
@@ -16072,7 +16074,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -16086,7 +16088,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16106,7 +16108,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -16120,7 +16122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -16134,7 +16136,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -16148,7 +16150,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16162,7 +16164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -16176,7 +16178,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -16196,7 +16198,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -16210,7 +16212,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -16224,7 +16226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -16238,7 +16240,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -16258,7 +16260,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -16286,7 +16288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -16300,7 +16302,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -16334,7 +16336,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -16348,7 +16350,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -16362,7 +16364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -16376,7 +16378,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -16396,7 +16398,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -16416,7 +16418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -16430,9 +16432,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -16450,7 +16452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -16464,7 +16466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -16484,7 +16486,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -16518,7 +16520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -16532,7 +16534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -16560,7 +16562,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -16594,7 +16596,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -16614,7 +16616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -16642,7 +16644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -16656,7 +16658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>399</v>
       </c>
@@ -16676,7 +16678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -16690,7 +16692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -16704,7 +16706,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -16732,7 +16734,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -16752,7 +16754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -16766,7 +16768,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -16786,7 +16788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -16800,7 +16802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -16814,7 +16816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -16828,7 +16830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -16842,7 +16844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -16862,7 +16864,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -16876,7 +16878,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -16890,7 +16892,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -16904,7 +16906,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -16924,7 +16926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -16938,7 +16940,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -16952,7 +16954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -16980,7 +16982,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -16994,7 +16996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17014,7 +17016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17028,7 +17030,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17042,7 +17044,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17056,7 +17058,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -17070,7 +17072,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -17090,7 +17092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -17104,7 +17106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -17132,7 +17134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -17146,7 +17148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17166,7 +17168,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -17180,7 +17182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -17194,7 +17196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -17208,7 +17210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -17235,21 +17237,21 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17269,7 +17271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -17289,7 +17291,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -17309,7 +17311,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -17323,7 +17325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -17351,7 +17353,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -17365,7 +17367,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -17379,7 +17381,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -17396,7 +17398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>422</v>
       </c>
@@ -17407,7 +17409,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -17418,7 +17420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -17438,7 +17440,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -17452,7 +17454,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -17466,7 +17468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -17480,7 +17482,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -17494,7 +17496,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -17514,7 +17516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -17528,7 +17530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -17542,7 +17544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -17556,7 +17558,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -17576,7 +17578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -17590,7 +17592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -17604,7 +17606,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -17618,7 +17620,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -17632,7 +17634,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17646,7 +17648,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -17666,7 +17668,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -17680,7 +17682,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -17694,7 +17696,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -17714,7 +17716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -17728,7 +17730,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -17742,7 +17744,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -17756,7 +17758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -17770,7 +17772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -17790,7 +17792,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -17804,7 +17806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -17818,7 +17820,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -17832,9 +17834,9 @@
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -17852,7 +17854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -17866,7 +17868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -17880,7 +17882,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -17900,7 +17902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -17914,7 +17916,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -17928,7 +17930,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -17942,7 +17944,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>433</v>
       </c>
@@ -17962,7 +17964,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -17976,7 +17978,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -17990,7 +17992,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18004,7 +18006,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18024,7 +18026,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18038,7 +18040,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18052,7 +18054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>399</v>
       </c>
@@ -18072,7 +18074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -18086,7 +18088,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -18100,7 +18102,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -18114,7 +18116,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -18128,7 +18130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18148,7 +18150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -18162,7 +18164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -18176,7 +18178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -18190,7 +18192,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>341</v>
       </c>
@@ -18210,7 +18212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -18224,7 +18226,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -18244,7 +18246,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -18264,7 +18266,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -18284,7 +18286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -18298,7 +18300,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18312,7 +18314,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -18326,7 +18328,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -18346,7 +18348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -18360,7 +18362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -18374,7 +18376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -18388,7 +18390,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -18402,7 +18404,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -18416,7 +18418,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -18436,7 +18438,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -18470,7 +18472,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -18484,7 +18486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -18498,7 +18500,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -18512,7 +18514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -18532,7 +18534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -18546,7 +18548,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -18573,21 +18575,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -18607,7 +18609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -18627,7 +18629,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -18641,7 +18643,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -18661,7 +18663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -18675,7 +18677,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -18689,7 +18691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -18703,7 +18705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -18717,7 +18719,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -18737,7 +18739,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>374</v>
       </c>
@@ -18757,7 +18759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -18771,7 +18773,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -18785,7 +18787,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -18805,7 +18807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -18819,7 +18821,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -18853,7 +18855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -18867,7 +18869,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -18881,7 +18883,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -18895,7 +18897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -18909,7 +18911,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>399</v>
       </c>
@@ -18929,7 +18931,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -18943,7 +18945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18957,7 +18959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18971,7 +18973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18985,7 +18987,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19005,7 +19007,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19019,7 +19021,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>327</v>
       </c>
@@ -19039,7 +19041,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19067,7 +19069,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -19087,7 +19089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -19107,7 +19109,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -19121,7 +19123,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -19135,7 +19137,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -19175,7 +19177,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>475</v>
       </c>
@@ -19195,7 +19197,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -19209,7 +19211,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -19223,7 +19225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -19237,7 +19239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -19257,7 +19259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -19271,7 +19273,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -19285,7 +19287,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19299,7 +19301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -19319,7 +19321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -19333,7 +19335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -19353,7 +19355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -19367,7 +19369,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -19381,7 +19383,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -19395,7 +19397,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -19415,7 +19417,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -19463,7 +19465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -19477,7 +19479,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -19491,7 +19493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -19511,7 +19513,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -19525,7 +19527,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -19539,7 +19541,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -19553,7 +19555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -19573,7 +19575,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -19587,7 +19589,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -19601,7 +19603,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -19621,7 +19623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -19635,7 +19637,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -19649,7 +19651,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -19663,7 +19665,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>493</v>
       </c>
@@ -19683,7 +19685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>494</v>
       </c>
@@ -19697,7 +19699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>494</v>
       </c>
@@ -19711,7 +19713,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -19725,7 +19727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -19753,21 +19755,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -19787,7 +19789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19807,7 +19809,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -19821,7 +19823,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19841,7 +19843,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19855,7 +19857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19883,7 +19885,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -19903,7 +19905,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -19917,7 +19919,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -19931,7 +19933,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -19945,7 +19947,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>374</v>
       </c>
@@ -19965,7 +19967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -19979,7 +19981,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -19993,7 +19995,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20007,7 +20009,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>504</v>
       </c>
@@ -20027,7 +20029,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20047,7 +20049,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20061,7 +20063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -20075,7 +20077,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -20089,7 +20091,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -20103,7 +20105,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -20117,7 +20119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -20137,7 +20139,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -20151,7 +20153,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -20171,7 +20173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -20185,7 +20187,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -20199,7 +20201,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -20219,9 +20221,9 @@
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>327</v>
+        <v>736</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -20239,7 +20241,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20259,7 +20261,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>433</v>
       </c>
@@ -20279,7 +20281,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -20299,7 +20301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -20313,7 +20315,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -20333,7 +20335,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -20347,7 +20349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -20361,7 +20363,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -20395,7 +20397,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -20409,7 +20411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -20429,7 +20431,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -20449,7 +20451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -20463,7 +20465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -20477,7 +20479,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -20491,7 +20493,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -20511,7 +20513,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -20525,7 +20527,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -20539,7 +20541,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -20553,7 +20555,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -20573,7 +20575,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -20587,7 +20589,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -20601,7 +20603,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -20621,7 +20623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -20635,7 +20637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -20649,7 +20651,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -20663,7 +20665,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -20683,7 +20685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -20697,7 +20699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -20711,7 +20713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -20731,7 +20733,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -20745,7 +20747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -20759,7 +20761,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -20773,7 +20775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9508" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4505805F-9AE5-464C-8680-C17179ED0715}"/>
+  <xr:revisionPtr revIDLastSave="9509" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8C2BA6-0790-45AE-BF1F-0D97250F0479}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="737">
   <si>
     <t>Semifinal</t>
   </si>
@@ -1032,9 +1032,6 @@
   </si>
   <si>
     <t>Ágnes Szávay (HUNGARY)</t>
-  </si>
-  <si>
-    <t>MUTUA MADRID OPEN</t>
   </si>
   <si>
     <t>Varvara Lepchenko (USA)</t>
@@ -4815,6 +4812,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5305,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5313,13 +5314,13 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5333,7 +5334,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -5347,13 +5348,13 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5361,7 +5362,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
@@ -5372,7 +5373,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5381,7 +5382,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -5392,7 +5393,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -5415,7 +5416,7 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -5443,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
@@ -5463,7 +5464,7 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -5477,13 +5478,13 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5511,13 +5512,13 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>539</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5525,7 +5526,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -5539,7 +5540,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -5564,7 +5565,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -5573,13 +5574,13 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5587,7 +5588,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -5601,13 +5602,13 @@
         <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5621,12 +5622,12 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -5649,7 +5650,7 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
@@ -5669,13 +5670,13 @@
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,7 +5704,7 @@
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -5717,13 +5718,13 @@
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5765,7 +5766,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -5779,7 +5780,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -5793,7 +5794,7 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>9</v>
@@ -5804,7 +5805,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -5813,13 +5814,13 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5827,13 +5828,13 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,13 +5842,13 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5855,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -5869,7 +5870,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -5917,7 +5918,7 @@
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -5937,7 +5938,7 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5965,7 +5966,7 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -5985,7 +5986,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5999,7 +6000,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6013,7 +6014,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -6033,7 +6034,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6041,7 +6042,7 @@
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
@@ -6067,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -6075,7 +6076,7 @@
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -6089,7 +6090,7 @@
         <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -6109,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6131,13 +6132,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6193,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6213,12 +6214,12 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -6233,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6241,7 +6242,7 @@
         <v>54</v>
       </c>
       <c r="D79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -6261,7 +6262,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6269,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>9</v>
@@ -6295,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6315,7 +6316,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6323,7 +6324,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -6357,7 +6358,7 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +6419,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -6432,13 +6433,13 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6474,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
@@ -6494,13 +6495,13 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6514,13 +6515,13 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6539,7 +6540,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -6554,7 +6555,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6576,7 +6577,7 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -6590,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -6610,13 +6611,13 @@
         <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6635,7 +6636,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -6644,7 +6645,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -6658,7 +6659,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -6672,7 +6673,7 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -6700,13 +6701,13 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6734,7 +6735,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
@@ -6754,7 +6755,7 @@
         <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -6782,13 +6783,13 @@
         <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6802,7 +6803,7 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -6830,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,12 +6851,12 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -6878,7 +6879,7 @@
         <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -6906,13 +6907,13 @@
         <v>53</v>
       </c>
       <c r="D42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
         <v>587</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -6932,7 +6933,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -6946,7 +6947,7 @@
         <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -6966,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -7000,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7008,7 +7009,7 @@
         <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -7022,13 +7023,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -7042,7 +7043,7 @@
         <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -7056,13 +7057,13 @@
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -7070,7 +7071,7 @@
         <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -7084,7 +7085,7 @@
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>9</v>
@@ -7095,7 +7096,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -7104,7 +7105,7 @@
         <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
@@ -7124,7 +7125,7 @@
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -7164,13 +7165,13 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -7178,13 +7179,13 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -7192,7 +7193,7 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -7206,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -7226,7 +7227,7 @@
         <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -7240,13 +7241,13 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,7 +7261,7 @@
         <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -7280,7 +7281,7 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7288,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -7299,7 +7300,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -7308,13 +7309,13 @@
         <v>44</v>
       </c>
       <c r="D77" t="s">
+        <v>600</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
         <v>601</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -7328,7 +7329,7 @@
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -7342,7 +7343,7 @@
         <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>10</v>
@@ -7367,7 +7368,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -7376,13 +7377,13 @@
         <v>44</v>
       </c>
       <c r="D83" t="s">
+        <v>604</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
         <v>605</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -7390,7 +7391,7 @@
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>9</v>
@@ -7401,7 +7402,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -7416,7 +7417,7 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -7486,7 +7487,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -7500,7 +7501,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -7514,7 +7515,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -7528,13 +7529,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7548,18 +7549,18 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>612</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -7579,7 +7580,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -7588,13 +7589,13 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -7602,7 +7603,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -7622,12 +7623,12 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -7636,7 +7637,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -7650,7 +7651,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -7664,7 +7665,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
@@ -7684,13 +7685,13 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7704,13 +7705,13 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7718,18 +7719,18 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B24" t="s">
         <v>103</v>
@@ -7738,7 +7739,7 @@
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -7752,18 +7753,18 @@
         <v>54</v>
       </c>
       <c r="D25" t="s">
+        <v>624</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>625</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B27" t="s">
         <v>103</v>
@@ -7772,13 +7773,13 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -7820,13 +7821,13 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7851,7 +7852,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -7860,7 +7861,7 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -7880,12 +7881,12 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -7894,13 +7895,13 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7908,7 +7909,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>9</v>
@@ -7928,13 +7929,13 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,13 +7949,13 @@
         <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -7990,7 +7991,7 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -8004,7 +8005,7 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -8038,13 +8039,13 @@
         <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8058,7 +8059,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8066,7 +8067,7 @@
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -8086,7 +8087,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -8094,7 +8095,7 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -8105,7 +8106,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -8128,7 +8129,7 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -8162,13 +8163,13 @@
         <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -8176,7 +8177,7 @@
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -8201,7 +8202,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -8210,7 +8211,7 @@
         <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -8224,7 +8225,7 @@
         <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -8238,7 +8239,7 @@
         <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -8266,13 +8267,13 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,7 +8287,7 @@
         <v>44</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -8317,10 +8318,10 @@
         <v>258</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -8381,7 +8382,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -8395,7 +8396,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -8415,7 +8416,7 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8429,13 +8430,13 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8443,7 +8444,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -8457,13 +8458,13 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8477,7 +8478,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -8491,7 +8492,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -8505,7 +8506,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -8525,7 +8526,7 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -8567,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -8581,7 +8582,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -8592,7 +8593,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -8601,7 +8602,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -8615,7 +8616,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -8629,7 +8630,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -8643,7 +8644,7 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -8657,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -8671,7 +8672,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
@@ -8691,7 +8692,7 @@
         <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -8705,7 +8706,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -8719,7 +8720,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -8733,13 +8734,13 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -8753,7 +8754,7 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -8781,13 +8782,13 @@
         <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -8795,7 +8796,7 @@
         <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -8809,13 +8810,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -8823,7 +8824,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>9</v>
@@ -8834,7 +8835,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -8843,7 +8844,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -8857,7 +8858,7 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -8871,7 +8872,7 @@
         <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -8882,7 +8883,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -8891,7 +8892,7 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -8905,18 +8906,18 @@
         <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -8931,7 +8932,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -8945,12 +8946,12 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -8959,13 +8960,13 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
+        <v>662</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
         <v>663</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -8979,13 +8980,13 @@
         <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -8993,13 +8994,13 @@
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -9007,13 +9008,13 @@
         <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -9027,7 +9028,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -9035,13 +9036,13 @@
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -9055,13 +9056,13 @@
         <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -9083,13 +9084,13 @@
         <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -9097,13 +9098,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -9111,7 +9112,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -9131,13 +9132,13 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -9159,13 +9160,13 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -9173,18 +9174,18 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -9199,7 +9200,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -9207,13 +9208,13 @@
         <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -9221,7 +9222,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -9235,13 +9236,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
+        <v>677</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
         <v>678</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -9249,7 +9250,7 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>9</v>
@@ -9269,7 +9270,7 @@
         <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9297,13 +9298,13 @@
         <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -9311,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -9325,7 +9326,7 @@
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>9</v>
@@ -9359,7 +9360,7 @@
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -9373,7 +9374,7 @@
         <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>9</v>
@@ -9393,7 +9394,7 @@
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -9413,7 +9414,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -9427,13 +9428,13 @@
         <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -9447,7 +9448,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -9455,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -9469,7 +9470,7 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -9480,7 +9481,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -9489,7 +9490,7 @@
         <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
@@ -9509,13 +9510,13 @@
         <v>84</v>
       </c>
       <c r="D94" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -9523,7 +9524,7 @@
         <v>44</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -9537,7 +9538,7 @@
         <v>54</v>
       </c>
       <c r="D96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>9</v>
@@ -9548,7 +9549,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -9557,7 +9558,7 @@
         <v>44</v>
       </c>
       <c r="D98" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>10</v>
@@ -9571,13 +9572,13 @@
         <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -9591,13 +9592,13 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -9605,7 +9606,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>10</v>
@@ -9619,7 +9620,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
@@ -9633,13 +9634,13 @@
         <v>195</v>
       </c>
       <c r="D104" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -9647,7 +9648,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>10</v>
@@ -9669,8 +9670,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9714,7 +9715,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -9728,7 +9729,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -9742,13 +9743,13 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9756,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -9776,7 +9777,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -9790,7 +9791,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -9804,13 +9805,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
+        <v>692</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>693</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9818,7 +9819,7 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -9852,7 +9853,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -9860,13 +9861,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -9874,18 +9875,18 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -9894,7 +9895,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -9908,13 +9909,13 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9928,13 +9929,13 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9948,7 +9949,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9962,7 +9963,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -9970,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -9990,7 +9991,7 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -10004,13 +10005,13 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -10018,7 +10019,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -10038,18 +10039,18 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -10058,7 +10059,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -10078,7 +10079,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -10092,12 +10093,12 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -10106,7 +10107,7 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -10120,13 +10121,13 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -10134,7 +10135,7 @@
         <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
@@ -10154,7 +10155,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10168,13 +10169,13 @@
         <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -10182,7 +10183,7 @@
         <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
@@ -10202,13 +10203,13 @@
         <v>85</v>
       </c>
       <c r="D42" t="s">
+        <v>707</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>708</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -10216,7 +10217,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -10244,13 +10245,13 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -10264,7 +10265,7 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -10278,13 +10279,13 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -10292,7 +10293,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -10312,7 +10313,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -10320,13 +10321,13 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -10340,7 +10341,7 @@
         <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -10354,13 +10355,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -10374,13 +10375,13 @@
         <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -10394,13 +10395,13 @@
         <v>44</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -10428,7 +10429,7 @@
         <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -10448,18 +10449,18 @@
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -10468,7 +10469,7 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10482,13 +10483,13 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -10502,7 +10503,7 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -10516,7 +10517,7 @@
         <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -10530,7 +10531,7 @@
         <v>54</v>
       </c>
       <c r="D70" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -10544,7 +10545,7 @@
         <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -10558,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -10572,7 +10573,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -10592,13 +10593,13 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -10606,13 +10607,13 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -10620,7 +10621,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>9</v>
@@ -10642,8 +10643,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10687,7 +10688,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -10701,7 +10702,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -10721,7 +10722,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -10735,7 +10736,7 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10755,7 +10756,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -10769,13 +10770,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -10789,7 +10790,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -10809,7 +10810,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10823,12 +10824,12 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -10837,7 +10838,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -10851,13 +10852,13 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -10865,7 +10866,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -10879,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -10893,18 +10894,18 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -10919,7 +10920,7 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -10933,13 +10934,13 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -10953,13 +10954,13 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -10973,7 +10974,7 @@
         <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -10987,7 +10988,7 @@
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -11001,13 +11002,13 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -11021,13 +11022,13 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -11035,13 +11036,13 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -11049,7 +11050,7 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>9</v>
@@ -11069,7 +11070,7 @@
         <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -11083,13 +11084,13 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -11123,13 +11124,13 @@
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -11137,13 +11138,13 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -11151,7 +11152,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -11162,7 +11163,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -11177,7 +11178,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -11205,7 +11206,7 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -11219,7 +11220,7 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -11233,13 +11234,13 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -11247,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
@@ -11426,7 +11427,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -12238,7 +12239,7 @@
         <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -13294,7 +13295,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -14432,7 +14433,7 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -15094,7 +15095,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>327</v>
+        <v>735</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -15109,7 +15110,7 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -15117,7 +15118,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -15131,7 +15132,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -15159,13 +15160,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -15173,7 +15174,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
@@ -15199,7 +15200,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -15227,7 +15228,7 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -15241,7 +15242,7 @@
         <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -15261,7 +15262,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -15289,7 +15290,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -15303,7 +15304,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -15317,13 +15318,13 @@
         <v>85</v>
       </c>
       <c r="D70" t="s">
+        <v>338</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
         <v>339</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -15370,7 +15371,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
         <v>33</v>
@@ -15393,13 +15394,13 @@
         <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -15413,7 +15414,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -15421,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -15435,7 +15436,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>9</v>
@@ -15446,7 +15447,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -15461,7 +15462,7 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -15481,7 +15482,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -15495,7 +15496,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -15523,7 +15524,7 @@
         <v>44</v>
       </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>9</v>
@@ -15543,13 +15544,13 @@
         <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -15557,7 +15558,7 @@
         <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -15585,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -15619,7 +15620,7 @@
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
@@ -15633,7 +15634,7 @@
         <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -15667,7 +15668,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -15675,7 +15676,7 @@
         <v>53</v>
       </c>
       <c r="D99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
@@ -15689,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>10</v>
@@ -15703,7 +15704,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>9</v>
@@ -15729,7 +15730,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -15743,13 +15744,13 @@
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -15777,7 +15778,7 @@
         <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
@@ -15797,7 +15798,7 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -15811,7 +15812,7 @@
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -15825,13 +15826,13 @@
         <v>44</v>
       </c>
       <c r="D112" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -15851,7 +15852,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -15865,7 +15866,7 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -15893,7 +15894,7 @@
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -15961,7 +15962,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16023,7 +16024,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16045,7 +16046,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -16056,7 +16057,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -16071,7 +16072,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16099,13 +16100,13 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>376</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16133,7 +16134,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16141,13 +16142,13 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -16195,7 +16196,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -16209,7 +16210,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -16217,7 +16218,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -16231,13 +16232,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -16279,7 +16280,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -16299,7 +16300,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -16307,7 +16308,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -16327,7 +16328,7 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -16375,7 +16376,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -16389,7 +16390,7 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -16423,7 +16424,7 @@
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>9</v>
@@ -16434,7 +16435,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -16443,7 +16444,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -16468,7 +16469,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -16477,13 +16478,13 @@
         <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -16491,13 +16492,13 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -16525,7 +16526,7 @@
         <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -16539,7 +16540,7 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -16553,13 +16554,13 @@
         <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -16587,13 +16588,13 @@
         <v>44</v>
       </c>
       <c r="D55" t="s">
+        <v>395</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
         <v>396</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -16607,7 +16608,7 @@
         <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -16621,7 +16622,7 @@
         <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -16635,7 +16636,7 @@
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -16649,7 +16650,7 @@
         <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>9</v>
@@ -16660,7 +16661,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -16669,7 +16670,7 @@
         <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -16689,7 +16690,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -16703,7 +16704,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -16717,7 +16718,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -16731,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -16745,7 +16746,7 @@
         <v>44</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -16793,13 +16794,13 @@
         <v>54</v>
       </c>
       <c r="D72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -16869,13 +16870,13 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -16889,7 +16890,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -16917,7 +16918,7 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -16931,13 +16932,13 @@
         <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -17021,7 +17022,7 @@
         <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -17041,7 +17042,7 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -17055,7 +17056,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -17069,7 +17070,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -17097,7 +17098,7 @@
         <v>54</v>
       </c>
       <c r="D96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -17117,7 +17118,7 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -17131,7 +17132,7 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -17165,7 +17166,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -17215,13 +17216,13 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -17316,7 +17317,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -17344,7 +17345,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -17364,7 +17365,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17378,7 +17379,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -17400,13 +17401,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -17422,7 +17423,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -17437,7 +17438,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -17521,7 +17522,7 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -17569,7 +17570,7 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -17583,7 +17584,7 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -17597,7 +17598,7 @@
         <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -17617,7 +17618,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -17645,7 +17646,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -17687,13 +17688,13 @@
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17707,7 +17708,7 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -17721,13 +17722,13 @@
         <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17735,13 +17736,13 @@
         <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -17783,7 +17784,7 @@
         <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -17797,7 +17798,7 @@
         <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -17831,12 +17832,12 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -17859,7 +17860,7 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -17879,7 +17880,7 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -17893,7 +17894,7 @@
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -17907,13 +17908,13 @@
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -17927,7 +17928,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -17946,7 +17947,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -17955,13 +17956,13 @@
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -17969,13 +17970,13 @@
         <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -17989,7 +17990,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -18017,7 +18018,7 @@
         <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -18037,7 +18038,7 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -18056,7 +18057,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -18065,7 +18066,7 @@
         <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -18085,7 +18086,7 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -18107,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -18121,7 +18122,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -18141,7 +18142,7 @@
         <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -18189,12 +18190,12 @@
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
@@ -18223,7 +18224,7 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -18237,7 +18238,7 @@
         <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>9</v>
@@ -18257,7 +18258,7 @@
         <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>9</v>
@@ -18277,7 +18278,7 @@
         <v>54</v>
       </c>
       <c r="D84" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -18291,7 +18292,7 @@
         <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -18311,7 +18312,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -18319,7 +18320,7 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -18339,7 +18340,7 @@
         <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -18353,7 +18354,7 @@
         <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -18367,7 +18368,7 @@
         <v>44</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>10</v>
@@ -18387,7 +18388,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -18395,13 +18396,13 @@
         <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -18435,7 +18436,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -18449,7 +18450,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -18463,13 +18464,13 @@
         <v>84</v>
       </c>
       <c r="D99" t="s">
+        <v>452</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
         <v>453</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -18497,7 +18498,7 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -18505,13 +18506,13 @@
         <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -18525,7 +18526,7 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>9</v>
@@ -18545,7 +18546,7 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -18559,7 +18560,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -18626,7 +18627,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -18640,7 +18641,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -18654,7 +18655,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -18668,13 +18669,13 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -18710,13 +18711,13 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18730,18 +18731,18 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -18750,7 +18751,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -18784,7 +18785,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -18818,7 +18819,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -18846,7 +18847,7 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -18860,7 +18861,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -18874,13 +18875,13 @@
         <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -18908,12 +18909,12 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -18964,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -19004,7 +19005,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -19023,7 +19024,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>327</v>
+        <v>735</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -19038,7 +19039,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -19046,13 +19047,13 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -19066,7 +19067,7 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -19086,7 +19087,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -19100,7 +19101,7 @@
         <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -19134,7 +19135,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -19148,13 +19149,13 @@
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -19174,12 +19175,12 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B50" t="s">
         <v>103</v>
@@ -19194,7 +19195,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -19202,13 +19203,13 @@
         <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -19250,7 +19251,7 @@
         <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -19264,13 +19265,13 @@
         <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -19292,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>9</v>
@@ -19312,7 +19313,7 @@
         <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -19326,7 +19327,7 @@
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>9</v>
@@ -19394,7 +19395,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -19408,7 +19409,7 @@
         <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>9</v>
@@ -19428,7 +19429,7 @@
         <v>44</v>
       </c>
       <c r="D70" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -19442,7 +19443,7 @@
         <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -19476,7 +19477,7 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -19504,13 +19505,13 @@
         <v>84</v>
       </c>
       <c r="D76" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -19524,7 +19525,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -19538,7 +19539,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -19566,13 +19567,13 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -19586,7 +19587,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -19600,7 +19601,7 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -19634,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -19648,7 +19649,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -19662,21 +19663,21 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D90" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -19687,7 +19688,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D91" t="s">
         <v>250</v>
@@ -19701,7 +19702,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D92" t="s">
         <v>319</v>
@@ -19710,7 +19711,7 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -19820,7 +19821,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -19848,7 +19849,7 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -19862,7 +19863,7 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -19882,7 +19883,7 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -19896,7 +19897,7 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -19916,7 +19917,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -19924,13 +19925,13 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -19949,7 +19950,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -19958,7 +19959,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -19972,7 +19973,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -19992,7 +19993,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -20000,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
@@ -20011,7 +20012,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -20020,13 +20021,13 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
+        <v>504</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>505</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -20046,7 +20047,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -20074,7 +20075,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -20088,7 +20089,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -20102,7 +20103,7 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -20130,13 +20131,13 @@
         <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -20144,7 +20145,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>9</v>
@@ -20164,7 +20165,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -20178,13 +20179,13 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -20192,13 +20193,13 @@
         <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -20218,12 +20219,12 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -20232,7 +20233,7 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>9</v>
@@ -20252,18 +20253,18 @@
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -20272,7 +20273,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -20292,7 +20293,7 @@
         <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -20306,13 +20307,13 @@
         <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -20332,7 +20333,7 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -20340,7 +20341,7 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -20368,13 +20369,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -20388,7 +20389,7 @@
         <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -20402,7 +20403,7 @@
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>9</v>
@@ -20428,7 +20429,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -20442,7 +20443,7 @@
         <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -20470,7 +20471,7 @@
         <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -20490,7 +20491,7 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -20504,13 +20505,13 @@
         <v>44</v>
       </c>
       <c r="D62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -20518,7 +20519,7 @@
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -20532,13 +20533,13 @@
         <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -20546,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>9</v>
@@ -20566,7 +20567,7 @@
         <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -20580,7 +20581,7 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -20594,7 +20595,7 @@
         <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>9</v>
@@ -20614,7 +20615,7 @@
         <v>44</v>
       </c>
       <c r="D71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -20642,13 +20643,13 @@
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -20662,7 +20663,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -20690,7 +20691,7 @@
         <v>54</v>
       </c>
       <c r="D77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -20724,13 +20725,13 @@
         <v>44</v>
       </c>
       <c r="D80" t="s">
+        <v>529</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
         <v>530</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
@@ -20752,7 +20753,7 @@
         <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -20780,7 +20781,7 @@
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9509" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8C2BA6-0790-45AE-BF1F-0D97250F0479}"/>
+  <xr:revisionPtr revIDLastSave="9510" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67F7E7C-3C59-4C5B-B6EC-0605D5E18464}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4812,10 +4812,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10643,8 +10639,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11271,17 +11267,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14433,7 +14429,7 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9510" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67F7E7C-3C59-4C5B-B6EC-0605D5E18464}"/>
+  <xr:revisionPtr revIDLastSave="9554" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505EC88E-7D34-45A5-BA12-37342BD62B07}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -29,9 +29,12 @@
     <sheet name="2018" sheetId="25" r:id="rId14"/>
     <sheet name="2019" sheetId="26" r:id="rId15"/>
     <sheet name="2020" sheetId="27" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="Wins-Losses" sheetId="28" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
+    <sheet name="2021" sheetId="31" r:id="rId17"/>
+    <sheet name="2022" sheetId="32" r:id="rId18"/>
+    <sheet name="2023" sheetId="33" r:id="rId19"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId20"/>
+    <sheet name="Wins-Losses" sheetId="28" r:id="rId21"/>
+    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="740">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2262,6 +2265,15 @@
   </si>
   <si>
     <t>QATAR LADIES OPEN</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Kimberly Birrell (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -4750,7 +4762,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4783,7 +4795,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4810,6 +4822,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10639,8 +10655,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11267,7 +11283,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11417,450 +11433,217 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F2571E-14A4-48EA-A8D4-14E131BAEE09}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2005</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F431A6-4F88-4F95-98F3-7BED747ECFF8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC1E601-FEA8-45AA-88F9-83BC5DC83F74}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
-        <v>-1</v>
-      </c>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2006</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>0.42105263157894735</v>
-      </c>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2007</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.39285714285714285</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2009</v>
-      </c>
-      <c r="B6">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.64179104477611937</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.734375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>66</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.74242424242424243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2014</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>49</v>
-      </c>
-      <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61224489795918369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2015</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41025641025641024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2016</v>
-      </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
-      <c r="E14">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>41</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.58536585365853655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2019</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2020</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4">
-        <f>SUM(B2:B17)</f>
-        <v>297</v>
-      </c>
-      <c r="C18" s="4">
-        <f>SUM(C2:C17)</f>
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
-        <f>SUM(D2:D17)</f>
-        <v>639</v>
-      </c>
-      <c r="E18" s="4">
-        <f>SUM(E2:E17)</f>
-        <v>265</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="1">(D18-E18)/D18</f>
-        <v>0.58528951486697967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4">
-        <f>AVERAGE(B2:B17)</f>
-        <v>18.5625</v>
-      </c>
-      <c r="C19" s="4">
-        <f>AVERAGE(C2:C17)</f>
-        <v>1.875</v>
-      </c>
-      <c r="D19" s="4">
-        <f>AVERAGE(D2:D17)</f>
-        <v>39.9375</v>
-      </c>
-      <c r="E19" s="4">
-        <f>AVERAGE(E2:E17)</f>
-        <v>16.5625</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.58528951486697967</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F17">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12392,6 +12175,517 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2005</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F20" si="0">(D2-E2)/D2</f>
+        <v>-1</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2006</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2007</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2008</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6607142857142857</v>
+      </c>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64179104477611937</v>
+      </c>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2010</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.734375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2012</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2013</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2014</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61224489795918369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41025641025641024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.58536585365853655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2023</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUM(B2:B20)</f>
+        <v>298</v>
+      </c>
+      <c r="C21" s="4">
+        <f>SUM(C2:C20)</f>
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:E21" si="1">SUM(D2:D20)</f>
+        <v>640</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:F22" si="2">(D21-E21)/D21</f>
+        <v>0.58437499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <f>AVERAGE(B2:B20)</f>
+        <v>15.684210526315789</v>
+      </c>
+      <c r="C22" s="4">
+        <f>AVERAGE(C2:C20)</f>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:E22" si="3">AVERAGE(D2:D20)</f>
+        <v>33.684210526315788</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.58437499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F20">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9554" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{505EC88E-7D34-45A5-BA12-37342BD62B07}"/>
+  <xr:revisionPtr revIDLastSave="9563" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F0F824-8B78-42F1-A669-B872D9CC3A4C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="741">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2274,6 +2274,9 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -11571,15 +11574,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -11639,6 +11642,26 @@
       </c>
       <c r="F3" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -12185,7 +12208,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -12608,7 +12631,7 @@
         <v>2023</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -12617,11 +12640,11 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12630,7 +12653,7 @@
       </c>
       <c r="B21" s="4">
         <f>SUM(B2:B20)</f>
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C21" s="4">
         <f>SUM(C2:C20)</f>
@@ -12642,11 +12665,11 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ref="F21:F22" si="2">(D21-E21)/D21</f>
-        <v>0.58437499999999998</v>
+        <v>0.58281249999999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12655,7 +12678,7 @@
       </c>
       <c r="B22" s="4">
         <f>AVERAGE(B2:B20)</f>
-        <v>15.684210526315789</v>
+        <v>15.736842105263158</v>
       </c>
       <c r="C22" s="4">
         <f>AVERAGE(C2:C20)</f>
@@ -12667,11 +12690,11 @@
       </c>
       <c r="E22" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>14.052631578947368</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>0.58437499999999998</v>
+        <v>0.58281249999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9563" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67F0F824-8B78-42F1-A669-B872D9CC3A4C}"/>
+  <xr:revisionPtr revIDLastSave="9582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384FC489-2E9F-4AB7-AB65-039FEFFAE046}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4368" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="745">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2277,6 +2277,18 @@
   </si>
   <si>
     <t>Varvara Gracheva (FRANCE)</t>
+  </si>
+  <si>
+    <t>Coco Gauff (USA)</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Tatiana Prozorova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Jennifer Brady (USA)</t>
   </si>
 </sst>
 </file>
@@ -7457,8 +7469,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9685,8 +9697,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10658,8 +10670,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11574,20 +11586,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11662,6 +11674,68 @@
       </c>
       <c r="F5" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>744</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -12631,20 +12705,20 @@
         <v>2023</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -12653,7 +12727,7 @@
       </c>
       <c r="B21" s="4">
         <f>SUM(B2:B20)</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C21" s="4">
         <f>SUM(C2:C20)</f>
@@ -12661,15 +12735,15 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ref="D21:E21" si="1">SUM(D2:D20)</f>
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ref="F21:F22" si="2">(D21-E21)/D21</f>
-        <v>0.58281249999999996</v>
+        <v>0.58320373250388802</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -12678,7 +12752,7 @@
       </c>
       <c r="B22" s="4">
         <f>AVERAGE(B2:B20)</f>
-        <v>15.736842105263158</v>
+        <v>15.789473684210526</v>
       </c>
       <c r="C22" s="4">
         <f>AVERAGE(C2:C20)</f>
@@ -12686,15 +12760,15 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:E22" si="3">AVERAGE(D2:D20)</f>
-        <v>33.684210526315788</v>
+        <v>33.842105263157897</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="3"/>
-        <v>14.052631578947368</v>
+        <v>14.105263157894736</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="2"/>
-        <v>0.58281249999999996</v>
+        <v>0.58320373250388813</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{384FC489-2E9F-4AB7-AB65-039FEFFAE046}"/>
+  <xr:revisionPtr revIDLastSave="9583" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0434329-B365-43A9-863E-8D41BE62E7AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <sheet name="2021" sheetId="31" r:id="rId17"/>
     <sheet name="2022" sheetId="32" r:id="rId18"/>
     <sheet name="2023" sheetId="33" r:id="rId19"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId20"/>
+    <sheet name="Stats" sheetId="1" r:id="rId20"/>
     <sheet name="Wins-Losses" sheetId="28" r:id="rId21"/>
     <sheet name="Winning Percentile Range" sheetId="30" r:id="rId22"/>
   </sheets>
@@ -2518,7 +2518,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2539,7 +2539,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2596,7 +2596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
+              <c:f>Stats!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2662,7 +2662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2683,7 +2683,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2740,7 +2740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
+              <c:f>Stats!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3182,7 +3182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3231,7 +3231,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3288,7 +3288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
+              <c:f>Stats!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="16"/>
@@ -12283,7 +12283,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9583" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0434329-B365-43A9-863E-8D41BE62E7AD}"/>
+  <xr:revisionPtr revIDLastSave="9584" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8961AF-8877-45D6-A4D0-1E827CD00113}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4754,7 +4754,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{265997E6-230F-4202-B338-CB789A0F50EC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4766,7 +4766,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D1E3C22-7F25-4BA5-9B28-9C25F34A1AF4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5145,21 +5145,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5282,21 +5282,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>735</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>562</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6401,21 +6401,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>562</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -7469,21 +7469,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>626</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>639</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8364,21 +8364,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>734</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>657</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>735</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>661</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>562</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>639</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9697,21 +9697,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10670,21 +10670,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>562</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11297,21 +11297,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11454,21 +11454,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11521,21 +11521,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11588,21 +11588,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -11751,21 +11751,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -11957,7 +11957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12283,21 +12283,21 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -12339,7 +12339,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -12427,7 +12427,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>0.58320373250388802</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -12793,21 +12793,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -13033,7 +13033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13584,21 +13584,21 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -13810,7 +13810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -14256,7 +14256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -14820,21 +14820,21 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -15852,7 +15852,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -16298,21 +16298,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16496,7 +16496,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -16690,7 +16690,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -16854,7 +16854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -17266,7 +17266,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -17625,21 +17625,21 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>735</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>398</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -18504,7 +18504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -18750,7 +18750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -18874,7 +18874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -18936,7 +18936,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -18963,21 +18963,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -19107,7 +19107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -19127,7 +19127,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -19161,7 +19161,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -19209,7 +19209,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -19333,7 +19333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -19375,7 +19375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -19599,7 +19599,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -19675,7 +19675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -19785,7 +19785,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -19839,7 +19839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -19977,7 +19977,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -20039,7 +20039,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>493</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>493</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -20143,21 +20143,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -20321,7 +20321,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -20355,7 +20355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20397,7 +20397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -20417,7 +20417,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20437,7 +20437,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -20507,7 +20507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>735</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -20785,7 +20785,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -20901,7 +20901,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -20977,7 +20977,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -21087,7 +21087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -21149,7 +21149,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9584" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8961AF-8877-45D6-A4D0-1E827CD00113}"/>
   <bookViews>
-    <workbookView xWindow="15705" yWindow="750" windowWidth="21615" windowHeight="15345" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4754,7 +4754,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{265997E6-230F-4202-B338-CB789A0F50EC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4777,7 +4777,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4810,7 +4810,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4837,10 +4837,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5145,7 +5141,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5282,7 +5278,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6401,7 +6397,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7469,7 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -8364,7 +8360,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -9697,7 +9693,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -10670,7 +10666,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11297,7 +11293,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11454,7 +11450,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11521,7 +11517,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11588,8 +11584,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11751,7 +11747,7 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12282,7 +12278,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12793,7 +12789,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -13584,7 +13580,7 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -14820,7 +14816,7 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -16298,7 +16294,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -17625,7 +17621,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -18963,7 +18959,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -20143,7 +20139,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9584" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8961AF-8877-45D6-A4D0-1E827CD00113}"/>
+  <xr:revisionPtr revIDLastSave="9585" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D562CE-4326-4FA2-B484-6CF76BF518D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4754,7 +4754,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{265997E6-230F-4202-B338-CB789A0F50EC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4810,7 +4810,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4837,6 +4837,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5141,21 +5145,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5245,7 +5249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5278,21 +5282,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5332,7 +5336,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5380,7 +5384,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -5414,7 +5418,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5448,7 +5452,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5462,7 +5466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -5606,7 +5610,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5620,7 +5624,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>735</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5682,7 +5686,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5702,7 +5706,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5722,7 +5726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5750,7 +5754,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -5846,7 +5850,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5902,7 +5906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6026,7 +6030,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6108,7 +6112,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6150,7 +6154,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6198,7 +6202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6212,7 +6216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>562</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6397,21 +6401,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6507,7 +6511,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6581,7 +6585,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6609,7 +6613,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6623,7 +6627,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6767,7 +6771,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7027,7 +7031,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7075,7 +7079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7089,7 +7093,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7197,7 +7201,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7239,7 +7243,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7259,7 +7263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7307,7 +7311,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>562</v>
       </c>
@@ -7341,7 +7345,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -7409,7 +7413,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7423,7 +7427,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -7465,21 +7469,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7519,7 +7523,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7649,7 +7653,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>626</v>
       </c>
@@ -7805,7 +7809,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7825,7 +7829,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7873,7 +7877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -7941,7 +7945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8037,7 +8041,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8071,7 +8075,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8099,7 +8103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8127,7 +8131,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>639</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8271,7 +8275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8319,7 +8323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8360,21 +8364,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8414,7 +8418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8428,7 +8432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8442,7 +8446,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8462,7 +8466,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8490,7 +8494,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8614,7 +8618,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8662,7 +8666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8738,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8752,7 +8756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8766,7 +8770,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8786,7 +8790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8814,7 +8818,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>734</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>657</v>
       </c>
@@ -8924,7 +8928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>735</v>
       </c>
@@ -8958,7 +8962,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -8972,7 +8976,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>661</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9026,7 +9030,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9054,7 +9058,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9116,7 +9120,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9130,7 +9134,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9164,7 +9168,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9206,7 +9210,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9254,7 +9258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9268,7 +9272,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9282,7 +9286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9330,7 +9334,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9378,7 +9382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9426,7 +9430,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9502,7 +9506,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>562</v>
       </c>
@@ -9522,7 +9526,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9542,7 +9546,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9556,7 +9560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>639</v>
       </c>
@@ -9590,7 +9594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9624,7 +9628,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9638,7 +9642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9693,21 +9697,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9747,7 +9751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9775,7 +9779,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9789,7 +9793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9803,7 +9807,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9823,7 +9827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9837,7 +9841,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -9865,7 +9869,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -9927,7 +9931,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -9961,7 +9965,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -9975,7 +9979,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10003,7 +10007,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10023,7 +10027,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10051,7 +10055,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10071,7 +10075,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -10139,7 +10143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10187,7 +10191,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10263,7 +10267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10277,7 +10281,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10297,7 +10301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10325,7 +10329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10339,7 +10343,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10353,7 +10357,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10373,7 +10377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10387,7 +10391,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10481,7 +10485,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10515,7 +10519,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10549,7 +10553,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10563,7 +10567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10625,7 +10629,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10639,7 +10643,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10666,21 +10670,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10700,7 +10704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10734,7 +10738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10754,7 +10758,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10768,7 +10772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10782,7 +10786,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10802,7 +10806,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10822,7 +10826,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10836,7 +10840,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10850,7 +10854,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -10884,7 +10888,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10912,7 +10916,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -10926,7 +10930,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -10986,7 +10990,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11006,7 +11010,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11034,7 +11038,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11054,7 +11058,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11082,7 +11086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11102,7 +11106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11184,7 +11188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>562</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11224,7 +11228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11238,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11252,7 +11256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11266,7 +11270,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11293,21 +11297,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11327,7 +11331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11347,7 +11351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11361,7 +11365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11375,7 +11379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11389,7 +11393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11409,7 +11413,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11423,7 +11427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11450,21 +11454,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11484,7 +11488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11517,21 +11521,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11584,21 +11588,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11672,7 +11676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -11747,21 +11751,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11781,7 +11785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11815,7 +11819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11849,7 +11853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11869,7 +11873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -11883,7 +11887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -11897,7 +11901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -11925,7 +11929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -11942,7 +11946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -11953,7 +11957,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -11964,7 +11968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -11984,7 +11988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12004,7 +12008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12018,7 +12022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12038,7 +12042,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12058,7 +12062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12072,7 +12076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12086,7 +12090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12106,7 +12110,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12134,7 +12138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12154,7 +12158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12174,7 +12178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12188,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12216,7 +12220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12230,7 +12234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12250,7 +12254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12278,22 +12282,22 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12313,7 +12317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -12335,7 +12339,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -12357,7 +12361,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -12379,7 +12383,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12401,7 +12405,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -12423,7 +12427,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -12444,7 +12448,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12465,7 +12469,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -12507,7 +12511,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -12528,7 +12532,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -12549,7 +12553,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -12591,7 +12595,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -12633,7 +12637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -12654,7 +12658,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -12675,7 +12679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -12696,7 +12700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -12717,7 +12721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -12742,7 +12746,7 @@
         <v>0.58320373250388802</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -12789,21 +12793,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -12843,7 +12847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -12857,7 +12861,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -12871,7 +12875,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -12919,7 +12923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -12933,7 +12937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -12953,7 +12957,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -12967,7 +12971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -12981,7 +12985,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -13009,7 +13013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -13029,7 +13033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -13077,7 +13081,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -13091,7 +13095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13105,7 +13109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13119,7 +13123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13193,7 +13197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -13241,7 +13245,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -13261,7 +13265,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -13295,7 +13299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13315,7 +13319,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -13343,7 +13347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -13363,7 +13367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -13377,7 +13381,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13391,7 +13395,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13425,7 +13429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13445,7 +13449,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -13465,7 +13469,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -13505,7 +13509,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -13519,7 +13523,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13580,21 +13584,21 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13614,7 +13618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13634,7 +13638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -13648,7 +13652,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -13662,7 +13666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -13676,7 +13680,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -13696,7 +13700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -13710,7 +13714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13724,7 +13728,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -13738,7 +13742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -13786,7 +13790,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -13834,7 +13838,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -13868,7 +13872,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -13882,7 +13886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -13896,7 +13900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -13910,7 +13914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -13964,7 +13968,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -13978,7 +13982,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -13998,7 +14002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -14026,7 +14030,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -14060,7 +14064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -14074,7 +14078,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -14142,7 +14146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -14156,7 +14160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -14190,7 +14194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -14204,7 +14208,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -14224,7 +14228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -14238,7 +14242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -14252,7 +14256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -14300,7 +14304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -14314,7 +14318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -14328,7 +14332,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14342,7 +14346,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -14362,7 +14366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -14376,7 +14380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14390,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14404,7 +14408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14418,7 +14422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14438,7 +14442,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14452,7 +14456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -14466,7 +14470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -14480,7 +14484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -14500,7 +14504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -14540,7 +14544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -14554,7 +14558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -14582,7 +14586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -14596,7 +14600,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -14616,7 +14620,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -14630,7 +14634,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14650,7 +14654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -14684,7 +14688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -14698,7 +14702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -14712,7 +14716,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -14726,7 +14730,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -14746,7 +14750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -14760,7 +14764,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -14774,7 +14778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -14816,21 +14820,21 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14850,7 +14854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -14884,7 +14888,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -14898,7 +14902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -14918,7 +14922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -14946,7 +14950,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -14966,7 +14970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -14980,7 +14984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -14994,7 +14998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -15014,7 +15018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -15028,7 +15032,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -15042,7 +15046,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15062,7 +15066,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -15076,7 +15080,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -15090,7 +15094,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -15104,7 +15108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -15118,7 +15122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -15138,7 +15142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -15152,7 +15156,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -15166,7 +15170,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -15214,7 +15218,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -15228,7 +15232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -15262,7 +15266,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -15276,7 +15280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -15290,7 +15294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15304,7 +15308,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -15338,7 +15342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -15352,7 +15356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -15366,7 +15370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15380,7 +15384,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15414,7 +15418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15428,7 +15432,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15448,7 +15452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -15462,7 +15466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -15476,7 +15480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -15496,7 +15500,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -15510,7 +15514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -15524,7 +15528,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -15538,7 +15542,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -15552,7 +15556,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -15586,7 +15590,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -15600,7 +15604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -15614,7 +15618,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15634,7 +15638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -15648,7 +15652,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -15662,7 +15666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -15676,7 +15680,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -15710,7 +15714,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -15724,7 +15728,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -15738,7 +15742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -15752,7 +15756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -15800,7 +15804,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -15814,7 +15818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -15828,7 +15832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -15848,7 +15852,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -15868,7 +15872,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -15882,7 +15886,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -15896,7 +15900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -15916,7 +15920,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -15936,7 +15940,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -15950,7 +15954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -15964,7 +15968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -15978,7 +15982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -16012,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -16026,7 +16030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -16054,7 +16058,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -16068,7 +16072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -16082,7 +16086,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -16096,7 +16100,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -16136,7 +16140,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -16156,7 +16160,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -16184,7 +16188,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -16198,7 +16202,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -16218,7 +16222,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -16252,7 +16256,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -16266,7 +16270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -16294,21 +16298,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16328,7 +16332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -16348,7 +16352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -16368,7 +16372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -16382,7 +16386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16396,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16410,7 +16414,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16427,7 +16431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -16438,7 +16442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -16458,7 +16462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16492,7 +16496,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16548,7 +16552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -16562,7 +16566,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -16582,7 +16586,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -16596,7 +16600,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -16610,7 +16614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -16624,7 +16628,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -16644,7 +16648,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -16658,7 +16662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -16672,7 +16676,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -16686,7 +16690,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -16700,7 +16704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -16734,7 +16738,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -16748,7 +16752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -16762,7 +16766,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -16782,7 +16786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -16802,7 +16806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -16816,7 +16820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -16836,7 +16840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -16850,7 +16854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -16870,7 +16874,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -16884,7 +16888,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -16904,7 +16908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -16918,7 +16922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -16932,7 +16936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -16946,7 +16950,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -16960,7 +16964,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -16980,7 +16984,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -17014,7 +17018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -17028,7 +17032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -17042,7 +17046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -17062,7 +17066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -17076,7 +17080,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17104,7 +17108,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17118,7 +17122,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17138,7 +17142,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -17152,7 +17156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17172,7 +17176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -17186,7 +17190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -17214,7 +17218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -17228,7 +17232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -17248,7 +17252,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -17262,7 +17266,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17276,7 +17280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -17290,7 +17294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -17310,7 +17314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -17324,7 +17328,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -17352,7 +17356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -17366,7 +17370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -17380,7 +17384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17400,7 +17404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17414,7 +17418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17428,7 +17432,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17442,7 +17446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -17476,7 +17480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -17490,7 +17494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -17504,7 +17508,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -17518,7 +17522,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -17532,7 +17536,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17552,7 +17556,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -17566,7 +17570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -17580,7 +17584,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -17594,7 +17598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -17621,21 +17625,21 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17655,7 +17659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -17675,7 +17679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -17695,7 +17699,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -17709,7 +17713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -17723,7 +17727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -17737,7 +17741,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -17751,7 +17755,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -17782,7 +17786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -17793,7 +17797,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -17804,7 +17808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -17824,7 +17828,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -17838,7 +17842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -17852,7 +17856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -17866,7 +17870,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -17880,7 +17884,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -17900,7 +17904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -17914,7 +17918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -17928,7 +17932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -17942,7 +17946,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -17976,7 +17980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -17990,7 +17994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18004,7 +18008,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18018,7 +18022,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18032,7 +18036,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -18052,7 +18056,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -18066,7 +18070,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -18080,7 +18084,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -18100,7 +18104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -18114,7 +18118,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18142,7 +18146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -18156,7 +18160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18176,7 +18180,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -18190,7 +18194,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -18204,7 +18208,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18218,7 +18222,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>735</v>
       </c>
@@ -18238,7 +18242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -18252,7 +18256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -18266,7 +18270,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -18286,7 +18290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -18300,7 +18304,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -18314,7 +18318,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -18328,7 +18332,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -18348,7 +18352,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -18362,7 +18366,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -18376,7 +18380,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18390,7 +18394,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18410,7 +18414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18424,7 +18428,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18438,7 +18442,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>398</v>
       </c>
@@ -18458,7 +18462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -18472,7 +18476,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -18486,7 +18490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -18500,7 +18504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -18514,7 +18518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -18548,7 +18552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -18562,7 +18566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -18576,7 +18580,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -18610,7 +18614,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -18630,7 +18634,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -18650,7 +18654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -18670,7 +18674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -18684,7 +18688,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18698,7 +18702,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -18712,7 +18716,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -18746,7 +18750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -18760,7 +18764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -18774,7 +18778,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -18788,7 +18792,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -18802,7 +18806,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -18822,7 +18826,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -18836,7 +18840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -18870,7 +18874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -18884,7 +18888,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -18898,7 +18902,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -18918,7 +18922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -18932,7 +18936,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -18959,21 +18963,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -18993,7 +18997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19013,7 +19017,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -19027,7 +19031,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19047,7 +19051,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19061,7 +19065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19075,7 +19079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19089,7 +19093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -19103,7 +19107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -19123,7 +19127,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -19143,7 +19147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -19157,7 +19161,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -19171,7 +19175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -19191,7 +19195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -19205,7 +19209,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -19219,7 +19223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -19239,7 +19243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -19253,7 +19257,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -19281,7 +19285,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19295,7 +19299,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -19315,7 +19319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -19329,7 +19333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -19343,7 +19347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -19357,7 +19361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -19371,7 +19375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19391,7 +19395,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -19425,7 +19429,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19439,7 +19443,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19453,7 +19457,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -19473,7 +19477,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -19493,7 +19497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -19507,7 +19511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -19521,7 +19525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -19541,7 +19545,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -19581,7 +19585,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -19595,7 +19599,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -19609,7 +19613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -19623,7 +19627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -19657,7 +19661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -19671,7 +19675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19685,7 +19689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -19705,7 +19709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -19719,7 +19723,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -19739,7 +19743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -19753,7 +19757,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -19767,7 +19771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -19781,7 +19785,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -19801,7 +19805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -19835,7 +19839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -19849,7 +19853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -19863,7 +19867,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -19877,7 +19881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -19897,7 +19901,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -19911,7 +19915,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -19925,7 +19929,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -19939,7 +19943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -19959,7 +19963,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -19973,7 +19977,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -19987,7 +19991,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -20007,7 +20011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -20021,7 +20025,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -20035,7 +20039,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -20049,7 +20053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -20069,7 +20073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>493</v>
       </c>
@@ -20083,7 +20087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>493</v>
       </c>
@@ -20097,7 +20101,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -20111,7 +20115,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -20139,21 +20143,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20173,7 +20177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -20193,7 +20197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -20207,7 +20211,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -20227,7 +20231,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -20241,7 +20245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -20255,7 +20259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -20269,7 +20273,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -20289,7 +20293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -20303,7 +20307,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -20317,7 +20321,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20331,7 +20335,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -20351,7 +20355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -20365,7 +20369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -20379,7 +20383,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20393,7 +20397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -20413,7 +20417,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20433,7 +20437,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20447,7 +20451,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -20461,7 +20465,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -20475,7 +20479,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -20503,7 +20507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -20523,7 +20527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -20537,7 +20541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -20557,7 +20561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -20571,7 +20575,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -20585,7 +20589,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -20605,7 +20609,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>735</v>
       </c>
@@ -20625,7 +20629,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20645,7 +20649,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -20665,7 +20669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -20685,7 +20689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -20699,7 +20703,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -20719,7 +20723,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -20733,7 +20737,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -20747,7 +20751,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -20761,7 +20765,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -20781,7 +20785,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -20795,7 +20799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -20815,7 +20819,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -20835,7 +20839,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -20849,7 +20853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -20863,7 +20867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -20877,7 +20881,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -20897,7 +20901,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -20911,7 +20915,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -20925,7 +20929,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -20939,7 +20943,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -20959,7 +20963,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -20973,7 +20977,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -20987,7 +20991,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -21007,7 +21011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -21021,7 +21025,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -21035,7 +21039,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -21049,7 +21053,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -21069,7 +21073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -21083,7 +21087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -21097,7 +21101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -21117,7 +21121,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -21131,7 +21135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -21145,7 +21149,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -21159,7 +21163,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9585" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D562CE-4326-4FA2-B484-6CF76BF518D5}"/>
+  <xr:revisionPtr revIDLastSave="9587" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577BCD6B-64A5-4B1B-9CE1-EF31427B1A97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9587" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577BCD6B-64A5-4B1B-9CE1-EF31427B1A97}"/>
+  <xr:revisionPtr revIDLastSave="9633" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38CF709A-BEFA-4519-8912-A2988CAC53D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2021" sheetId="31" r:id="rId17"/>
     <sheet name="2022" sheetId="32" r:id="rId18"/>
     <sheet name="2023" sheetId="33" r:id="rId19"/>
-    <sheet name="Stats" sheetId="1" r:id="rId20"/>
-    <sheet name="Wins-Losses" sheetId="28" r:id="rId21"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId22"/>
+    <sheet name="2024" sheetId="34" r:id="rId20"/>
+    <sheet name="Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId22"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="745">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2472,8 +2473,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Caroline Wozniacki (DENMARK): Wins-Losses</a:t>
+              <a:t>Caroline</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Wozniacki (DENMARK): Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2539,10 +2545,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -2591,15 +2597,27 @@
                 <c:pt idx="15">
                   <c:v>2020</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$17</c:f>
+              <c:f>Stats!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2648,12 +2666,24 @@
                 <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C52-4520-ABF5-D55A98E8E616}"/>
+              <c16:uniqueId val="{00000000-1182-4792-B22D-E102AC912FE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,10 +2713,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -2735,15 +2765,27 @@
                 <c:pt idx="15">
                   <c:v>2020</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$17</c:f>
+              <c:f>Stats!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2792,12 +2834,24 @@
                 <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C52-4520-ABF5-D55A98E8E616}"/>
+              <c16:uniqueId val="{00000001-1182-4792-B22D-E102AC912FE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2811,11 +2865,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="704073072"/>
-        <c:axId val="704052272"/>
+        <c:axId val="1151266432"/>
+        <c:axId val="1150623744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="704073072"/>
+        <c:axId val="1151266432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704052272"/>
+        <c:crossAx val="1150623744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="704052272"/>
+        <c:axId val="1150623744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +3081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704073072"/>
+        <c:crossAx val="1151266432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3137,8 +3191,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Caroline Wozniacki (DENMARK): Winning Percentile Range</a:t>
+              <a:t>Caroline Wozniacki (DENMARK):</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3231,10 +3290,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$17</c:f>
+              <c:f>Stats!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -3283,15 +3342,27 @@
                 <c:pt idx="15">
                   <c:v>2020</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$17</c:f>
+              <c:f>Stats!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
                 </c:pt>
@@ -3340,13 +3411,25 @@
                 <c:pt idx="15">
                   <c:v>0.6</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B353-449F-A7D2-A352CEDE987E}"/>
+              <c16:uniqueId val="{00000000-4D44-46B5-9D42-772C5B4F352B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3360,11 +3443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="757700304"/>
-        <c:axId val="757680752"/>
+        <c:axId val="1103980464"/>
+        <c:axId val="1332779552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="757700304"/>
+        <c:axId val="1103980464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,7 +3545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="757680752"/>
+        <c:crossAx val="1332779552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3470,7 +3553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="757680752"/>
+        <c:axId val="1332779552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3576,7 +3659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="757700304"/>
+        <c:crossAx val="1103980464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4235,7 +4318,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4343,11 +4426,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4358,11 +4436,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4394,9 +4467,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4751,10 +4821,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{265997E6-230F-4202-B338-CB789A0F50EC}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4763,13 +4833,14 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D1E3C22-7F25-4BA5-9B28-9C25F34A1AF4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4777,13 +4848,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5A2638-AA59-6171-7B0A-1B8F239104BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5582E82D-1908-B00C-5BD6-336940D21703}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4810,13 +4881,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37164A6D-54C4-68A9-DB9E-EF976FECFB4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9493D60-CACE-1760-556C-CBD3D87C2ED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5145,8 +5216,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5282,8 +5353,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6401,8 +6472,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7469,8 +7540,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8364,8 +8435,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9697,8 +9768,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10670,8 +10741,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11297,8 +11368,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11454,8 +11525,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11521,8 +11592,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11588,8 +11659,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11751,8 +11822,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12276,14 +12347,81 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF82E37-1429-4AD1-ACDB-D46BA2B976A0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12334,7 +12472,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F20" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
         <v>-1</v>
       </c>
       <c r="N2" s="6"/>
@@ -12722,57 +12860,78 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <f>SUM(B2:B20)</f>
-        <v>300</v>
-      </c>
-      <c r="C21" s="4">
-        <f>SUM(C2:C20)</f>
-        <v>30</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" ref="D21:E21" si="1">SUM(D2:D20)</f>
-        <v>643</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ref="F21:F22" si="2">(D21-E21)/D21</f>
-        <v>0.58320373250388802</v>
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(B2:B21)</f>
+        <v>301</v>
+      </c>
+      <c r="C22" s="4">
+        <f>SUM(C2:C21)</f>
+        <v>30</v>
+      </c>
+      <c r="D22" s="4">
+        <f>SUM(D2:D21)</f>
+        <v>643</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SUM(E2:E21)</f>
+        <v>269</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
+        <v>0.58164852255054433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4">
-        <f>AVERAGE(B2:B20)</f>
-        <v>15.789473684210526</v>
-      </c>
-      <c r="C22" s="4">
-        <f>AVERAGE(C2:C20)</f>
-        <v>1.5789473684210527</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ref="D22:E22" si="3">AVERAGE(D2:D20)</f>
-        <v>33.842105263157897</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="3"/>
-        <v>14.105263157894736</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>0.58320373250388813</v>
+      <c r="B23" s="4">
+        <f>AVERAGE(B2:B21)</f>
+        <v>15.05</v>
+      </c>
+      <c r="C23" s="4">
+        <f>AVERAGE(C2:C21)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="4">
+        <f>AVERAGE(D2:D21)</f>
+        <v>32.15</v>
+      </c>
+      <c r="E23" s="4">
+        <f>AVERAGE(E2:E21)</f>
+        <v>13.45</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58164852255054433</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F21">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -12793,8 +12952,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13584,8 +13743,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14820,8 +14979,8 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16298,8 +16457,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17625,8 +17784,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18963,8 +19122,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20143,8 +20302,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9633" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38CF709A-BEFA-4519-8912-A2988CAC53D3}"/>
+  <xr:revisionPtr revIDLastSave="9634" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FBC7A7B-2A57-4046-B90D-D2786B9F3579}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4824,7 +4824,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4836,7 +4836,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5216,8 +5216,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5353,8 +5353,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6472,8 +6472,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7540,8 +7540,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8435,8 +8435,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9768,8 +9768,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10741,8 +10741,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11368,8 +11368,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11525,8 +11525,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11592,8 +11592,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11659,8 +11659,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11822,8 +11822,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12353,13 +12353,13 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
@@ -12421,7 +12421,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12952,8 +12952,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13743,8 +13743,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14979,8 +14979,8 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16457,8 +16457,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17784,8 +17784,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19122,8 +19122,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20302,8 +20302,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9634" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FBC7A7B-2A57-4046-B90D-D2786B9F3579}"/>
+  <xr:revisionPtr revIDLastSave="9637" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71ADE572-A67D-4721-911B-E0619A8D6A46}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -4910,10 +4910,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5217,20 +5213,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5278,7 +5274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5289,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5300,7 +5296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5320,7 +5316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5354,20 +5350,20 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5407,7 +5403,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5421,7 +5417,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5441,7 +5437,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5455,7 +5451,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -5489,7 +5485,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5509,7 +5505,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5537,7 +5533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5585,7 +5581,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5599,7 +5595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5619,7 +5615,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5647,7 +5643,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5661,7 +5657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -5681,7 +5677,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5695,7 +5691,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5723,7 +5719,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>735</v>
       </c>
@@ -5743,7 +5739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5757,7 +5753,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5797,7 +5793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5825,7 +5821,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5873,7 +5869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5887,7 +5883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5901,7 +5897,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -5921,7 +5917,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -5949,7 +5945,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -5977,7 +5973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -5997,7 +5993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -6011,7 +6007,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -6039,7 +6035,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -6059,7 +6055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -6073,7 +6069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6087,7 +6083,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6101,7 +6097,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6149,7 +6145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6183,7 +6179,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6211,7 +6207,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6225,7 +6221,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6239,7 +6235,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6253,7 +6249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6273,7 +6269,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6287,7 +6283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6301,7 +6297,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6315,7 +6311,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>562</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6349,7 +6345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6363,7 +6359,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6377,7 +6373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6397,7 +6393,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6417,7 +6413,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6431,7 +6427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6445,7 +6441,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6473,20 +6469,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6526,7 +6522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6540,7 +6536,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6622,7 +6618,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6636,7 +6632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6656,7 +6652,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6670,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6684,7 +6680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6698,7 +6694,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6718,7 +6714,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6732,7 +6728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -6752,7 +6748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6766,7 +6762,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6780,7 +6776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6794,7 +6790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6808,7 +6804,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6842,7 +6838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6876,7 +6872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6890,7 +6886,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6924,7 +6920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6938,7 +6934,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6952,7 +6948,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -6972,7 +6968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -6986,7 +6982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -7000,7 +6996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -7014,7 +7010,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -7054,7 +7050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -7068,7 +7064,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -7088,7 +7084,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7102,7 +7098,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7130,7 +7126,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7150,7 +7146,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7164,7 +7160,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7178,7 +7174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7192,7 +7188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -7212,7 +7208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7232,7 +7228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7272,7 +7268,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7300,7 +7296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7314,7 +7310,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7334,7 +7330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7368,7 +7364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>562</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7436,7 +7432,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7450,7 +7446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7464,7 +7460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -7484,7 +7480,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7498,7 +7494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -7541,20 +7537,20 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7594,7 +7590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7608,7 +7604,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7622,7 +7618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7636,7 +7632,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7656,7 +7652,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -7696,7 +7692,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7710,7 +7706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7724,7 +7720,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7744,7 +7740,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7758,7 +7754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7792,7 +7788,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7812,7 +7808,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -7846,7 +7842,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7860,7 +7856,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>626</v>
       </c>
@@ -7880,7 +7876,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7900,7 +7896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7914,7 +7910,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7928,7 +7924,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7948,7 +7944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -7982,7 +7978,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8002,7 +7998,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -8016,7 +8012,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -8056,7 +8052,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -8070,7 +8066,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -8084,7 +8080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8094,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8112,7 +8108,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8160,7 +8156,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8174,7 +8170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8188,7 +8184,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8202,7 +8198,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -8222,7 +8218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8250,7 +8246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8270,7 +8266,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8284,7 +8280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>639</v>
       </c>
@@ -8318,7 +8314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8332,7 +8328,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8346,7 +8342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8436,20 +8432,20 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8469,7 +8465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8503,7 +8499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8517,7 +8513,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8537,7 +8533,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8551,7 +8547,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8565,7 +8561,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8585,7 +8581,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8599,7 +8595,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8613,7 +8609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8633,7 +8629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8661,7 +8657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8675,7 +8671,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8689,7 +8685,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -8709,7 +8705,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8723,7 +8719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8751,7 +8747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8761,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8779,7 +8775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8799,7 +8795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8813,7 +8809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8827,7 +8823,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8861,7 +8857,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8875,7 +8871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8889,7 +8885,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8917,7 +8913,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>734</v>
       </c>
@@ -8951,7 +8947,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -8965,7 +8961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -8979,7 +8975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>657</v>
       </c>
@@ -8999,7 +8995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -9013,7 +9009,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>735</v>
       </c>
@@ -9033,7 +9029,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>661</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -9087,7 +9083,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9115,7 +9111,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9163,7 +9159,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9177,7 +9173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9191,7 +9187,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9205,7 +9201,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9219,7 +9215,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9239,7 +9235,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9253,7 +9249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9267,7 +9263,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9281,7 +9277,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -9301,7 +9297,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9315,7 +9311,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9329,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9343,7 +9339,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9357,7 +9353,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9377,7 +9373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9391,7 +9387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9419,7 +9415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9433,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9453,7 +9449,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9467,7 +9463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9481,7 +9477,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9501,7 +9497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9515,7 +9511,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9535,7 +9531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9549,7 +9545,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9577,7 +9573,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>562</v>
       </c>
@@ -9597,7 +9593,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9617,7 +9613,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9631,7 +9627,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9645,7 +9641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>639</v>
       </c>
@@ -9665,7 +9661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9699,7 +9695,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9713,7 +9709,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9741,7 +9737,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9769,20 +9765,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9864,7 +9860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9898,7 +9894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9912,7 +9908,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9926,7 +9922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -9940,7 +9936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -9954,7 +9950,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -9968,7 +9964,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -10002,7 +9998,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10016,7 +10012,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -10036,7 +10032,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -10050,7 +10046,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -10064,7 +10060,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10078,7 +10074,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10098,7 +10094,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10126,7 +10122,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10146,7 +10142,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10180,7 +10176,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10194,7 +10190,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10262,7 +10258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10276,7 +10272,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10290,7 +10286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10310,7 +10306,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10324,7 +10320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10338,7 +10334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10352,7 +10348,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10386,7 +10382,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10414,7 +10410,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10428,7 +10424,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10448,7 +10444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10462,7 +10458,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10536,7 +10532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -10576,7 +10572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10590,7 +10586,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10610,7 +10606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10624,7 +10620,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10638,7 +10634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10652,7 +10648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10680,7 +10676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10700,7 +10696,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10714,7 +10710,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10742,20 +10738,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10775,7 +10771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10795,7 +10791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10809,7 +10805,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10843,7 +10839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10857,7 +10853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10877,7 +10873,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10911,7 +10907,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10925,7 +10921,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -10959,7 +10955,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10973,7 +10969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -10987,7 +10983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -11001,7 +10997,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -11021,7 +11017,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -11041,7 +11037,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -11061,7 +11057,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11081,7 +11077,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -11095,7 +11091,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11109,7 +11105,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11129,7 +11125,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11143,7 +11139,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11157,7 +11153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11177,7 +11173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11191,7 +11187,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11231,7 +11227,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11245,7 +11241,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11259,7 +11255,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>562</v>
       </c>
@@ -11279,7 +11275,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11299,7 +11295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11313,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11327,7 +11323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11341,7 +11337,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11369,20 +11365,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11402,7 +11398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11422,7 +11418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11436,7 +11432,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11450,7 +11446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11464,7 +11460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11484,7 +11480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11498,7 +11494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11526,20 +11522,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11559,7 +11555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11593,20 +11589,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11626,7 +11622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11660,20 +11656,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11693,7 +11689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -11713,7 +11709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -11727,7 +11723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11747,7 +11743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11781,7 +11777,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11795,7 +11791,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -11823,20 +11819,20 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11856,7 +11852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11876,7 +11872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11890,7 +11886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11904,7 +11900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11924,7 +11920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11944,7 +11940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -11958,7 +11954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -11972,7 +11968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -11986,7 +11982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -12000,7 +11996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12017,7 +12013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -12039,7 +12035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -12059,7 +12055,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12079,7 +12075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12093,7 +12089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12113,7 +12109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12133,7 +12129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12147,7 +12143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12161,7 +12157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12181,7 +12177,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12195,7 +12191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12209,7 +12205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12229,7 +12225,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12249,7 +12245,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12263,7 +12259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12277,7 +12273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12291,7 +12287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12305,7 +12301,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12325,7 +12321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12354,20 +12350,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12387,7 +12383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12421,21 +12417,21 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12455,7 +12451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -12477,7 +12473,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -12499,7 +12495,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -12521,7 +12517,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12543,7 +12539,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -12565,7 +12561,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -12586,7 +12582,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -12628,7 +12624,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -12649,7 +12645,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -12670,7 +12666,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -12691,7 +12687,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -12733,7 +12729,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -12754,7 +12750,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -12775,7 +12771,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -12796,7 +12792,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -12817,7 +12813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -12838,7 +12834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -12859,7 +12855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2024</v>
       </c>
@@ -12880,7 +12876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -12905,7 +12901,7 @@
         <v>0.58164852255054433</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -12953,20 +12949,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12986,7 +12982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -13006,7 +13002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -13020,7 +13016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -13034,7 +13030,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13048,7 +13044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -13062,7 +13058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -13082,7 +13078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13096,7 +13092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -13116,7 +13112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -13130,7 +13126,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -13144,7 +13140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -13158,7 +13154,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -13172,7 +13168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -13192,7 +13188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -13206,7 +13202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -13226,7 +13222,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -13240,7 +13236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -13254,7 +13250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13268,7 +13264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13282,7 +13278,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -13302,7 +13298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -13322,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -13336,7 +13332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13356,7 +13352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -13370,7 +13366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -13384,7 +13380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -13404,7 +13400,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -13424,7 +13420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -13438,7 +13434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13478,7 +13474,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -13492,7 +13488,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -13506,7 +13502,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -13526,7 +13522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -13540,7 +13536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13554,7 +13550,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13574,7 +13570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13588,7 +13584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13608,7 +13604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -13628,7 +13624,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -13648,7 +13644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -13668,7 +13664,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -13682,7 +13678,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -13696,7 +13692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -13710,7 +13706,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13744,20 +13740,20 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13777,7 +13773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13797,7 +13793,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -13811,7 +13807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -13825,7 +13821,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -13839,7 +13835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -13859,7 +13855,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -13873,7 +13869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13887,7 +13883,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -13901,7 +13897,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -13935,7 +13931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -13969,7 +13965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -13983,7 +13979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -13997,7 +13993,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -14011,7 +14007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -14031,7 +14027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -14045,7 +14041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -14059,7 +14055,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -14073,7 +14069,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -14093,7 +14089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -14107,7 +14103,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14127,7 +14123,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -14141,7 +14137,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -14161,7 +14157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -14175,7 +14171,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -14189,7 +14185,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -14209,7 +14205,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -14223,7 +14219,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -14237,7 +14233,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -14257,7 +14253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14271,7 +14267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14285,7 +14281,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -14305,7 +14301,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -14319,7 +14315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -14333,7 +14329,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -14353,7 +14349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -14367,7 +14363,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -14387,7 +14383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -14401,7 +14397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -14415,7 +14411,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -14429,7 +14425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -14449,7 +14445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -14463,7 +14459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -14477,7 +14473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -14491,7 +14487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14505,7 +14501,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -14525,7 +14521,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -14539,7 +14535,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14553,7 +14549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14567,7 +14563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14581,7 +14577,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14601,7 +14597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14615,7 +14611,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -14629,7 +14625,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -14643,7 +14639,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -14663,7 +14659,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14683,7 +14679,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -14703,7 +14699,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -14717,7 +14713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -14731,7 +14727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -14745,7 +14741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -14759,7 +14755,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -14779,7 +14775,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -14793,7 +14789,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14813,7 +14809,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14833,7 +14829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -14847,7 +14843,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -14861,7 +14857,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -14875,7 +14871,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -14889,7 +14885,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -14909,7 +14905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -14923,7 +14919,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -14937,7 +14933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -14951,7 +14947,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -14980,20 +14976,20 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15013,7 +15009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -15033,7 +15029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -15047,7 +15043,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -15061,7 +15057,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -15081,7 +15077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -15095,7 +15091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -15109,7 +15105,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15129,7 +15125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -15143,7 +15139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -15157,7 +15153,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -15177,7 +15173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -15205,7 +15201,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15225,7 +15221,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -15239,7 +15235,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -15253,7 +15249,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -15267,7 +15263,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -15281,7 +15277,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -15301,7 +15297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -15315,7 +15311,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -15329,7 +15325,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -15343,7 +15339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -15363,7 +15359,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -15377,7 +15373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -15391,7 +15387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -15405,7 +15401,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -15425,7 +15421,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -15439,7 +15435,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -15453,7 +15449,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15467,7 +15463,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15481,7 +15477,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -15501,7 +15497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -15515,7 +15511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -15529,7 +15525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15543,7 +15539,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15557,7 +15553,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15577,7 +15573,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15591,7 +15587,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15611,7 +15607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -15625,7 +15621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -15639,7 +15635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -15659,7 +15655,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -15673,7 +15669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -15687,7 +15683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -15701,7 +15697,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -15715,7 +15711,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -15729,7 +15725,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -15749,7 +15745,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -15763,7 +15759,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -15777,7 +15773,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15797,7 +15793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -15811,7 +15807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -15825,7 +15821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -15839,7 +15835,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -15853,7 +15849,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -15873,7 +15869,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -15887,7 +15883,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -15901,7 +15897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -15915,7 +15911,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -15935,7 +15931,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -15949,7 +15945,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -15963,7 +15959,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -15977,7 +15973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -15991,7 +15987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -16011,7 +16007,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -16045,7 +16041,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -16059,7 +16055,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -16079,7 +16075,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -16099,7 +16095,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -16113,7 +16109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -16127,7 +16123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -16141,7 +16137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -16155,7 +16151,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -16175,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -16189,7 +16185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -16203,7 +16199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -16217,7 +16213,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -16231,7 +16227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -16245,7 +16241,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -16259,7 +16255,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -16279,7 +16275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -16299,7 +16295,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -16319,7 +16315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -16333,7 +16329,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -16347,7 +16343,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -16361,7 +16357,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -16381,7 +16377,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -16401,7 +16397,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -16415,7 +16411,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -16429,7 +16425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -16458,20 +16454,20 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16491,7 +16487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -16511,7 +16507,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -16531,7 +16527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -16545,7 +16541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16559,7 +16555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16573,7 +16569,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16590,7 +16586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -16601,7 +16597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -16621,7 +16617,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -16635,7 +16631,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16655,7 +16651,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -16669,7 +16665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -16683,7 +16679,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -16697,7 +16693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16711,7 +16707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -16725,7 +16721,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -16759,7 +16755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -16773,7 +16769,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -16787,7 +16783,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -16807,7 +16803,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -16821,7 +16817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -16835,7 +16831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -16849,7 +16845,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -16863,7 +16859,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -16883,7 +16879,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -16897,7 +16893,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -16911,7 +16907,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -16925,7 +16921,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -16945,7 +16941,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -16965,7 +16961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -16979,7 +16975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -16999,7 +16995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -17013,7 +17009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -17033,7 +17029,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -17047,7 +17043,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -17067,7 +17063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -17081,7 +17077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -17095,7 +17091,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -17109,7 +17105,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -17123,7 +17119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -17143,7 +17139,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17163,7 +17159,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -17177,7 +17173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -17191,7 +17187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -17205,7 +17201,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -17225,7 +17221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -17239,7 +17235,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -17253,7 +17249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17281,7 +17277,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17301,7 +17297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -17315,7 +17311,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17335,7 +17331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -17349,7 +17345,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -17363,7 +17359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -17377,7 +17373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -17391,7 +17387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -17411,7 +17407,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -17425,7 +17421,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17439,7 +17435,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -17453,7 +17449,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -17473,7 +17469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -17487,7 +17483,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -17515,7 +17511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -17529,7 +17525,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -17543,7 +17539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17563,7 +17559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17577,7 +17573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17591,7 +17587,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17605,7 +17601,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -17619,7 +17615,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -17639,7 +17635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -17653,7 +17649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -17667,7 +17663,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -17681,7 +17677,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -17695,7 +17691,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17715,7 +17711,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -17729,7 +17725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -17743,7 +17739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -17757,7 +17753,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -17785,20 +17781,20 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17818,7 +17814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -17838,7 +17834,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -17858,7 +17854,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -17872,7 +17868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -17886,7 +17882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -17900,7 +17896,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -17914,7 +17910,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -17928,7 +17924,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -17945,7 +17941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -17956,7 +17952,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -17967,7 +17963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -17987,7 +17983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -18001,7 +17997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -18015,7 +18011,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -18029,7 +18025,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -18043,7 +18039,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -18063,7 +18059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -18077,7 +18073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18091,7 +18087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -18105,7 +18101,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -18125,7 +18121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -18139,7 +18135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -18153,7 +18149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18167,7 +18163,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18181,7 +18177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18195,7 +18191,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -18215,7 +18211,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -18229,7 +18225,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -18243,7 +18239,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -18263,7 +18259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -18277,7 +18273,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -18291,7 +18287,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18305,7 +18301,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -18319,7 +18315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18339,7 +18335,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -18353,7 +18349,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -18367,7 +18363,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18381,7 +18377,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>735</v>
       </c>
@@ -18401,7 +18397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -18415,7 +18411,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -18429,7 +18425,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -18449,7 +18445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -18463,7 +18459,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -18477,7 +18473,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -18491,7 +18487,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -18511,7 +18507,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -18525,7 +18521,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -18539,7 +18535,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18553,7 +18549,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18573,7 +18569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18587,7 +18583,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18601,7 +18597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>398</v>
       </c>
@@ -18621,7 +18617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -18649,7 +18645,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -18663,7 +18659,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -18677,7 +18673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18697,7 +18693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -18711,7 +18707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -18725,7 +18721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -18739,7 +18735,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -18759,7 +18755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -18773,7 +18769,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -18793,7 +18789,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -18813,7 +18809,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -18833,7 +18829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -18847,7 +18843,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -18861,7 +18857,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -18875,7 +18871,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -18895,7 +18891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -18909,7 +18905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -18923,7 +18919,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -18937,7 +18933,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -18951,7 +18947,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -18965,7 +18961,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -18985,7 +18981,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -18999,7 +18995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -19019,7 +19015,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -19033,7 +19029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -19047,7 +19043,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -19061,7 +19057,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -19081,7 +19077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -19095,7 +19091,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -19123,20 +19119,20 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -19156,7 +19152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19176,7 +19172,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -19190,7 +19186,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19210,7 +19206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19224,7 +19220,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19238,7 +19234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19252,7 +19248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -19266,7 +19262,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -19286,7 +19282,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -19306,7 +19302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -19320,7 +19316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -19334,7 +19330,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -19354,7 +19350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -19368,7 +19364,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -19382,7 +19378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -19402,7 +19398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -19416,7 +19412,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -19430,7 +19426,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -19444,7 +19440,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19458,7 +19454,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -19478,7 +19474,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -19492,7 +19488,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -19506,7 +19502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -19520,7 +19516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -19534,7 +19530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19554,7 +19550,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19568,7 +19564,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -19588,7 +19584,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19602,7 +19598,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19616,7 +19612,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -19636,7 +19632,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -19656,7 +19652,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -19670,7 +19666,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -19684,7 +19680,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -19704,7 +19700,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -19724,7 +19720,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -19744,7 +19740,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -19758,7 +19754,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -19772,7 +19768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -19786,7 +19782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -19806,7 +19802,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -19820,7 +19816,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -19834,7 +19830,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -19848,7 +19844,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -19868,7 +19864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -19882,7 +19878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -19902,7 +19898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -19916,7 +19912,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -19930,7 +19926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -19944,7 +19940,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -19964,7 +19960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -19984,7 +19980,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -19998,7 +19994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -20012,7 +20008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -20026,7 +20022,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -20040,7 +20036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -20060,7 +20056,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -20074,7 +20070,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -20088,7 +20084,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -20102,7 +20098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -20122,7 +20118,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -20136,7 +20132,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -20150,7 +20146,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -20170,7 +20166,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -20184,7 +20180,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -20198,7 +20194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -20212,7 +20208,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -20232,7 +20228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>493</v>
       </c>
@@ -20246,7 +20242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>493</v>
       </c>
@@ -20260,7 +20256,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -20274,7 +20270,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -20303,20 +20299,20 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20336,7 +20332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -20356,7 +20352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -20370,7 +20366,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -20390,7 +20386,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -20404,7 +20400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -20418,7 +20414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -20432,7 +20428,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -20452,7 +20448,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -20466,7 +20462,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -20480,7 +20476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20494,7 +20490,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -20514,7 +20510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -20528,7 +20524,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -20542,7 +20538,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20556,7 +20552,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -20576,7 +20572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20596,7 +20592,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20610,7 +20606,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -20624,7 +20620,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -20638,7 +20634,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -20652,7 +20648,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -20666,7 +20662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -20686,7 +20682,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -20700,7 +20696,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -20720,7 +20716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -20734,7 +20730,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -20748,7 +20744,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -20768,7 +20764,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>735</v>
       </c>
@@ -20788,7 +20784,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20808,7 +20804,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -20828,7 +20824,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -20848,7 +20844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -20862,7 +20858,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -20882,7 +20878,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -20896,7 +20892,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -20910,7 +20906,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -20924,7 +20920,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -20944,7 +20940,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -20958,7 +20954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -20978,7 +20974,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -20998,7 +20994,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -21012,7 +21008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -21026,7 +21022,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -21040,7 +21036,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -21060,7 +21056,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -21074,7 +21070,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -21088,7 +21084,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -21102,7 +21098,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -21122,7 +21118,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -21136,7 +21132,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -21150,7 +21146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -21170,7 +21166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -21184,7 +21180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -21198,7 +21194,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -21212,7 +21208,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -21232,7 +21228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -21246,7 +21242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -21260,7 +21256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -21280,7 +21276,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -21294,7 +21290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -21308,7 +21304,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -21322,7 +21318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9637" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71ADE572-A67D-4721-911B-E0619A8D6A46}"/>
+  <xr:revisionPtr revIDLastSave="9659" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC017E0-B232-485B-86EF-8C9866BC88E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4398" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="748">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2290,6 +2290,15 @@
   </si>
   <si>
     <t>Jennifer Brady (USA)</t>
+  </si>
+  <si>
+    <t>6-2 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Maria Timofeeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-1</t>
   </si>
 </sst>
 </file>
@@ -2676,7 +2685,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,7 +2853,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,7 +3430,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,7 +4833,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4836,7 +4845,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4848,7 +4857,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4881,7 +4890,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4910,10 +4919,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4951,7 +4964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5057,7 +5070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5199,7 +5212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5212,8 +5225,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,8 +5362,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6468,8 +6481,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,8 +7549,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8431,8 +8444,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9764,8 +9777,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10737,8 +10750,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11364,8 +11377,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11521,8 +11534,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11588,8 +11601,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11655,8 +11668,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11818,8 +11831,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12347,20 +12360,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12401,6 +12414,40 @@
       </c>
       <c r="F2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -12417,7 +12464,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12860,20 +12907,20 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="e">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12882,7 +12929,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -12890,15 +12937,15 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.58164852255054433</v>
+        <v>0.58074534161490687</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12907,7 +12954,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.05</v>
+        <v>15.1</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -12915,15 +12962,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.15</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.45</v>
+        <v>13.5</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.58164852255054433</v>
+        <v>0.58074534161490687</v>
       </c>
     </row>
   </sheetData>
@@ -12948,8 +12995,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13739,8 +13786,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14975,8 +15022,8 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16453,8 +16500,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17780,8 +17827,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19118,8 +19165,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20298,8 +20345,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9659" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC017E0-B232-485B-86EF-8C9866BC88E0}"/>
+  <xr:revisionPtr revIDLastSave="9667" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EE159C-4117-4554-8714-2A8897FE18C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="750">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2299,6 +2299,12 @@
   </si>
   <si>
     <t>1-6 6-4 6-1</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Anna Blinkova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2853,7 +2859,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3436,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12360,10 +12366,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12447,6 +12453,26 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>749</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>747</v>
       </c>
     </row>
@@ -12907,7 +12933,7 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -12916,11 +12942,11 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12929,7 +12955,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -12941,11 +12967,11 @@
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.58074534161490687</v>
+        <v>0.57919254658385089</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12954,7 +12980,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.1</v>
+        <v>15.15</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -12966,11 +12992,11 @@
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.5</v>
+        <v>13.55</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.58074534161490687</v>
+        <v>0.579192546583851</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9667" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09EE159C-4117-4554-8714-2A8897FE18C1}"/>
+  <xr:revisionPtr revIDLastSave="9688" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A17EC9F-8349-467B-BE30-E6FEBE10C23A}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="754">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2305,6 +2305,18 @@
   </si>
   <si>
     <t>Anna Blinkova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHAIN)</t>
+  </si>
+  <si>
+    <t>Katie Volynets (USA)</t>
+  </si>
+  <si>
+    <t>6-4 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-0</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2703,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,7 +2871,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,7 +3448,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9784,7 +9796,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10757,7 +10769,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12366,18 +12378,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" activeCellId="1" sqref="E4 E9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -12474,6 +12486,82 @@
       </c>
       <c r="F7" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>730</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -12933,20 +13021,20 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12955,7 +13043,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -12963,15 +13051,15 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.57919254658385089</v>
+        <v>0.58024691358024694</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12980,7 +13068,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.15</v>
+        <v>15.2</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -12988,15 +13076,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.200000000000003</v>
+        <v>32.4</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.55</v>
+        <v>13.6</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.579192546583851</v>
+        <v>0.58024691358024683</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9688" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A17EC9F-8349-467B-BE30-E6FEBE10C23A}"/>
+  <xr:revisionPtr revIDLastSave="9709" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DDCA1D1-F16B-4747-860D-C4065E7D4A92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4436" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="758">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2317,6 +2317,18 @@
   </si>
   <si>
     <t>6-2 4-6 6-0</t>
+  </si>
+  <si>
+    <t>McCartney Kessler (USA)</t>
+  </si>
+  <si>
+    <t>Clara Burel (FRANCE)</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>5-7 7-5 6-4</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +2715,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +2883,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,7 +3460,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,17 +5259,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5277,7 +5289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5294,7 +5306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5316,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5347,7 +5359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5384,17 +5396,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5414,7 +5426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5448,7 +5460,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5468,7 +5480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5496,7 +5508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -5516,7 +5528,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5536,7 +5548,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5550,7 +5562,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5598,7 +5610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5626,7 +5638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5646,7 +5658,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5660,7 +5672,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5674,7 +5686,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5688,7 +5700,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5722,7 +5734,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5736,7 +5748,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5750,7 +5762,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>735</v>
       </c>
@@ -5770,7 +5782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5784,7 +5796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5824,7 +5836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5852,7 +5864,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5866,7 +5878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5886,7 +5898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5900,7 +5912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5914,7 +5926,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5928,7 +5940,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -5948,7 +5960,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -5962,7 +5974,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -5976,7 +5988,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -6004,7 +6016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -6024,7 +6036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -6086,7 +6098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -6100,7 +6112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6114,7 +6126,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6128,7 +6140,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6176,7 +6188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6196,7 +6208,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6210,7 +6222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6224,7 +6236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6238,7 +6250,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6266,7 +6278,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6280,7 +6292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6300,7 +6312,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6328,7 +6340,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6342,7 +6354,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>562</v>
       </c>
@@ -6362,7 +6374,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6376,7 +6388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6390,7 +6402,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6404,7 +6416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6424,7 +6436,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6444,7 +6456,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6503,17 +6515,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6533,7 +6545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6553,7 +6565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6581,7 +6593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6609,7 +6621,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6629,7 +6641,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6649,7 +6661,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6683,7 +6695,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6697,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6725,7 +6737,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6745,7 +6757,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -6779,7 +6791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6793,7 +6805,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6855,7 +6867,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6869,7 +6881,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6889,7 +6901,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6903,7 +6915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6917,7 +6929,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6937,7 +6949,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6951,7 +6963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +6977,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -6999,7 +7011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -7013,7 +7025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -7027,7 +7039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -7061,7 +7073,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -7081,7 +7093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -7115,7 +7127,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7129,7 +7141,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7143,7 +7155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7157,7 +7169,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7177,7 +7189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7191,7 +7203,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7205,7 +7217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7219,7 +7231,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -7239,7 +7251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7259,7 +7271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7279,7 +7291,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7299,7 +7311,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7313,7 +7325,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7327,7 +7339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7341,7 +7353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7361,7 +7373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7395,7 +7407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7409,7 +7421,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7423,7 +7435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>562</v>
       </c>
@@ -7443,7 +7455,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7491,7 +7503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -7571,17 +7583,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7601,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7621,7 +7633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7635,7 +7647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7649,7 +7661,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -7703,7 +7715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -7723,7 +7735,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7737,7 +7749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7771,7 +7783,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7799,7 +7811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7819,7 +7831,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7839,7 +7851,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7853,7 +7865,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -7873,7 +7885,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7887,7 +7899,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>626</v>
       </c>
@@ -7907,7 +7919,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7927,7 +7939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7941,7 +7953,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7955,7 +7967,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -7995,7 +8007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -8009,7 +8021,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -8043,7 +8055,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -8063,7 +8075,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -8083,7 +8095,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -8097,7 +8109,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -8111,7 +8123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8139,7 +8151,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8153,7 +8165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8173,7 +8185,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8187,7 +8199,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8201,7 +8213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8229,7 +8241,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -8249,7 +8261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8263,7 +8275,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8277,7 +8289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8297,7 +8309,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8311,7 +8323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8325,7 +8337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>639</v>
       </c>
@@ -8345,7 +8357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8359,7 +8371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8373,7 +8385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8387,7 +8399,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8401,7 +8413,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8421,7 +8433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8435,7 +8447,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8466,17 +8478,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8496,7 +8508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8516,7 +8528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8544,7 +8556,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8564,7 +8576,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8578,7 +8590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8592,7 +8604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8612,7 +8624,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8626,7 +8638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8640,7 +8652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8660,7 +8672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8674,7 +8686,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8688,7 +8700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8702,7 +8714,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8716,7 +8728,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -8736,7 +8748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8750,7 +8762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8764,7 +8776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8778,7 +8790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8792,7 +8804,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8806,7 +8818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8826,7 +8838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8840,7 +8852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8854,7 +8866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8868,7 +8880,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8888,7 +8900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8902,7 +8914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8916,7 +8928,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8930,7 +8942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8944,7 +8956,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>734</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -8992,7 +9004,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -9006,7 +9018,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>657</v>
       </c>
@@ -9026,7 +9038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -9040,7 +9052,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>735</v>
       </c>
@@ -9060,7 +9072,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -9074,7 +9086,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>661</v>
       </c>
@@ -9094,7 +9106,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -9114,7 +9126,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9128,7 +9140,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9142,7 +9154,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9156,7 +9168,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9170,7 +9182,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9190,7 +9202,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9204,7 +9216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9218,7 +9230,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9232,7 +9244,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9246,7 +9258,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9266,7 +9278,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9280,7 +9292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9294,7 +9306,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9308,7 +9320,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -9328,7 +9340,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9342,7 +9354,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9356,7 +9368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9370,7 +9382,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9384,7 +9396,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9404,7 +9416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9418,7 +9430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9432,7 +9444,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9446,7 +9458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9460,7 +9472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9480,7 +9492,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9494,7 +9506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9508,7 +9520,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9528,7 +9540,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9542,7 +9554,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9576,7 +9588,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9590,7 +9602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9604,7 +9616,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>562</v>
       </c>
@@ -9624,7 +9636,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9644,7 +9656,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9658,7 +9670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9672,7 +9684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>639</v>
       </c>
@@ -9692,7 +9704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9706,7 +9718,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9726,7 +9738,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9754,7 +9766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9768,7 +9780,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9799,17 +9811,17 @@
       <selection activeCell="C8" sqref="C8:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9829,7 +9841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9849,7 +9861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9863,7 +9875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9877,7 +9889,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9891,7 +9903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9905,7 +9917,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9925,7 +9937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9939,7 +9951,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9953,7 +9965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -9967,7 +9979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -9981,7 +9993,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -9995,7 +10007,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10009,7 +10021,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -10029,7 +10041,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10043,7 +10055,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -10063,7 +10075,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -10077,7 +10089,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -10091,7 +10103,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10105,7 +10117,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10125,7 +10137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10139,7 +10151,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10153,7 +10165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10173,7 +10185,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -10193,7 +10205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10207,7 +10219,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10221,7 +10233,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -10241,7 +10253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10255,7 +10267,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10269,7 +10281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10289,7 +10301,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10303,7 +10315,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10317,7 +10329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10337,7 +10349,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10351,7 +10363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10365,7 +10377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10379,7 +10391,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10399,7 +10411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10413,7 +10425,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10427,7 +10439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10441,7 +10453,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10455,7 +10467,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10475,7 +10487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10489,7 +10501,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10509,7 +10521,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10529,7 +10541,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10549,7 +10561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10563,7 +10575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10583,7 +10595,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -10603,7 +10615,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10617,7 +10629,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10637,7 +10649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10651,7 +10663,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10665,7 +10677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10679,7 +10691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10693,7 +10705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10707,7 +10719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10727,7 +10739,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10741,7 +10753,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10772,17 +10784,17 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10802,7 +10814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10822,7 +10834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10836,7 +10848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10856,7 +10868,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10870,7 +10882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10884,7 +10896,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10904,7 +10916,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10924,7 +10936,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10938,7 +10950,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10952,7 +10964,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -10972,7 +10984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -10986,7 +10998,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -11000,7 +11012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -11014,7 +11026,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -11028,7 +11040,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -11068,7 +11080,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -11088,7 +11100,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11108,7 +11120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -11122,7 +11134,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11136,7 +11148,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11156,7 +11168,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11170,7 +11182,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11184,7 +11196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11204,7 +11216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11218,7 +11230,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11238,7 +11250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11258,7 +11270,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11272,7 +11284,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11286,7 +11298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>562</v>
       </c>
@@ -11306,7 +11318,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11326,7 +11338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11340,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11354,7 +11366,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11368,7 +11380,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11399,17 +11411,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11429,7 +11441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11449,7 +11461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11463,7 +11475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11477,7 +11489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11491,7 +11503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11511,7 +11523,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11525,7 +11537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11556,17 +11568,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11586,7 +11598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11623,17 +11635,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11653,7 +11665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11690,17 +11702,17 @@
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11720,7 +11732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -11740,7 +11752,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -11754,7 +11766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11774,7 +11786,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11794,7 +11806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11808,7 +11820,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11822,7 +11834,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -11853,17 +11865,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11883,7 +11895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11903,7 +11915,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11917,7 +11929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11931,7 +11943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11951,7 +11963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -11971,7 +11983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -11985,7 +11997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -11999,7 +12011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12013,7 +12025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -12027,7 +12039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12044,7 +12056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -12055,7 +12067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -12066,7 +12078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -12086,7 +12098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12106,7 +12118,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12120,7 +12132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12140,7 +12152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12160,7 +12172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12174,7 +12186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12188,7 +12200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12208,7 +12220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12222,7 +12234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12236,7 +12248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12256,7 +12268,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12276,7 +12288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12290,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12304,7 +12316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12318,7 +12330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12332,7 +12344,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12352,7 +12364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12378,23 +12390,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="E4 E9:E12"/>
+      <selection activeCell="E18" activeCellId="3" sqref="E4 E9:E12 E15 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12414,7 +12426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12434,7 +12446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -12454,7 +12466,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -12468,7 +12480,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>748</v>
       </c>
@@ -12488,7 +12500,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -12508,7 +12520,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>84</v>
       </c>
@@ -12522,7 +12534,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -12536,7 +12548,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -12550,7 +12562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -12562,6 +12574,74 @@
       </c>
       <c r="F13" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>755</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>756</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>734</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>754</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>756</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -12578,21 +12658,21 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12612,7 +12692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -12634,7 +12714,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -12656,7 +12736,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -12678,7 +12758,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12700,7 +12780,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -12722,7 +12802,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -12743,7 +12823,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12764,7 +12844,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -12785,7 +12865,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -12806,7 +12886,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -12827,7 +12907,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -12848,7 +12928,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -12869,7 +12949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -12890,7 +12970,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -12911,7 +12991,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -12932,7 +13012,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -12953,7 +13033,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -12974,7 +13054,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -12995,7 +13075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -13016,34 +13096,34 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -13051,24 +13131,24 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.58024691358024694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57846153846153847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -13076,15 +13156,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.58024691358024683</v>
+        <v>0.57846153846153847</v>
       </c>
     </row>
   </sheetData>
@@ -13113,17 +13193,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13143,7 +13223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -13163,7 +13243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -13177,7 +13257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -13191,7 +13271,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13205,7 +13285,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -13219,7 +13299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -13239,7 +13319,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13253,7 +13333,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -13273,7 +13353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -13287,7 +13367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -13301,7 +13381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -13315,7 +13395,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -13329,7 +13409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -13349,7 +13429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -13363,7 +13443,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -13383,7 +13463,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -13397,7 +13477,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -13411,7 +13491,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13425,7 +13505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13439,7 +13519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -13459,7 +13539,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -13479,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -13493,7 +13573,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13513,7 +13593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -13527,7 +13607,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -13541,7 +13621,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -13561,7 +13641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -13581,7 +13661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -13595,7 +13675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -13615,7 +13695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13635,7 +13715,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -13649,7 +13729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -13663,7 +13743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -13683,7 +13763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -13697,7 +13777,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13711,7 +13791,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13731,7 +13811,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13745,7 +13825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13765,7 +13845,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -13785,7 +13865,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -13805,7 +13885,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -13825,7 +13905,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -13839,7 +13919,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -13853,7 +13933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -13867,7 +13947,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -13904,17 +13984,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13934,7 +14014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -13954,7 +14034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -13968,7 +14048,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -13982,7 +14062,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -13996,7 +14076,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -14016,7 +14096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -14030,7 +14110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -14044,7 +14124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -14058,7 +14138,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -14078,7 +14158,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -14092,7 +14172,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -14106,7 +14186,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -14126,7 +14206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -14140,7 +14220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -14154,7 +14234,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -14168,7 +14248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -14188,7 +14268,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -14202,7 +14282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -14216,7 +14296,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -14230,7 +14310,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -14250,7 +14330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -14264,7 +14344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14284,7 +14364,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -14298,7 +14378,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -14318,7 +14398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -14332,7 +14412,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -14346,7 +14426,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -14366,7 +14446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -14380,7 +14460,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -14394,7 +14474,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -14414,7 +14494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14428,7 +14508,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14442,7 +14522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -14462,7 +14542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -14476,7 +14556,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -14490,7 +14570,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -14510,7 +14590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -14524,7 +14604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -14544,7 +14624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -14558,7 +14638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -14572,7 +14652,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -14586,7 +14666,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -14606,7 +14686,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -14620,7 +14700,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -14634,7 +14714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -14648,7 +14728,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14662,7 +14742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -14682,7 +14762,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -14696,7 +14776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14710,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14724,7 +14804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14738,7 +14818,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14758,7 +14838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14772,7 +14852,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -14786,7 +14866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -14800,7 +14880,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -14820,7 +14900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -14840,7 +14920,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -14860,7 +14940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -14874,7 +14954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -14888,7 +14968,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +14982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -14916,7 +14996,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -14936,7 +15016,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -14950,7 +15030,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -14970,7 +15050,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -14990,7 +15070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -15004,7 +15084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -15018,7 +15098,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -15032,7 +15112,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -15046,7 +15126,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -15066,7 +15146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -15080,7 +15160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -15094,7 +15174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -15108,7 +15188,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -15140,17 +15220,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15170,7 +15250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -15190,7 +15270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -15204,7 +15284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -15218,7 +15298,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -15238,7 +15318,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -15252,7 +15332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -15266,7 +15346,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15286,7 +15366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -15300,7 +15380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -15314,7 +15394,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -15334,7 +15414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -15348,7 +15428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -15362,7 +15442,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15382,7 +15462,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -15396,7 +15476,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -15410,7 +15490,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -15424,7 +15504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -15438,7 +15518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -15458,7 +15538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -15472,7 +15552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -15486,7 +15566,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -15500,7 +15580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -15520,7 +15600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -15534,7 +15614,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -15548,7 +15628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -15562,7 +15642,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -15582,7 +15662,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -15596,7 +15676,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -15610,7 +15690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15624,7 +15704,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15638,7 +15718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -15658,7 +15738,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -15672,7 +15752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -15686,7 +15766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15700,7 +15780,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15714,7 +15794,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15734,7 +15814,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15748,7 +15828,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15768,7 +15848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -15782,7 +15862,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -15796,7 +15876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -15816,7 +15896,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -15830,7 +15910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -15844,7 +15924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -15858,7 +15938,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -15872,7 +15952,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -15886,7 +15966,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -15906,7 +15986,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -15920,7 +16000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -15934,7 +16014,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -15954,7 +16034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -15968,7 +16048,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -15982,7 +16062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -15996,7 +16076,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -16010,7 +16090,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -16030,7 +16110,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -16044,7 +16124,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -16058,7 +16138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -16072,7 +16152,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -16092,7 +16172,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -16106,7 +16186,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -16120,7 +16200,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -16134,7 +16214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -16148,7 +16228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -16168,7 +16248,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -16188,7 +16268,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -16202,7 +16282,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -16216,7 +16296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -16236,7 +16316,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -16256,7 +16336,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -16270,7 +16350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -16284,7 +16364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -16298,7 +16378,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -16312,7 +16392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -16332,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -16346,7 +16426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -16360,7 +16440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -16374,7 +16454,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -16388,7 +16468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -16402,7 +16482,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -16416,7 +16496,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -16436,7 +16516,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -16456,7 +16536,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -16476,7 +16556,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -16490,7 +16570,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -16504,7 +16584,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -16518,7 +16598,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -16538,7 +16618,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -16558,7 +16638,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -16572,7 +16652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -16586,7 +16666,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -16618,17 +16698,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16648,7 +16728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -16668,7 +16748,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -16688,7 +16768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -16702,7 +16782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16716,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16730,7 +16810,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16747,7 +16827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -16758,7 +16838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -16778,7 +16858,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -16792,7 +16872,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16812,7 +16892,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -16826,7 +16906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -16840,7 +16920,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -16854,7 +16934,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -16868,7 +16948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -16882,7 +16962,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -16902,7 +16982,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -16916,7 +16996,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -16930,7 +17010,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -16944,7 +17024,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -16964,7 +17044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -16978,7 +17058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -16992,7 +17072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -17006,7 +17086,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17020,7 +17100,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -17040,7 +17120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -17054,7 +17134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -17068,7 +17148,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17082,7 +17162,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -17102,7 +17182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -17122,7 +17202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -17136,7 +17216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -17156,7 +17236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -17170,7 +17250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -17190,7 +17270,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -17204,7 +17284,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -17224,7 +17304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -17238,7 +17318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -17252,7 +17332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -17266,7 +17346,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -17280,7 +17360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -17300,7 +17380,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17320,7 +17400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -17334,7 +17414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -17348,7 +17428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -17362,7 +17442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -17382,7 +17462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -17396,7 +17476,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -17410,7 +17490,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17424,7 +17504,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17438,7 +17518,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17458,7 +17538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -17472,7 +17552,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17492,7 +17572,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -17506,7 +17586,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -17520,7 +17600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -17534,7 +17614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -17548,7 +17628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -17568,7 +17648,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -17582,7 +17662,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17596,7 +17676,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -17610,7 +17690,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -17630,7 +17710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -17644,7 +17724,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -17658,7 +17738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -17672,7 +17752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -17686,7 +17766,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -17700,7 +17780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17720,7 +17800,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17734,7 +17814,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17748,7 +17828,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17762,7 +17842,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -17776,7 +17856,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -17796,7 +17876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -17810,7 +17890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -17824,7 +17904,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -17838,7 +17918,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -17852,7 +17932,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -17872,7 +17952,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -17886,7 +17966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -17900,7 +17980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -17914,7 +17994,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -17945,17 +18025,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -17975,7 +18055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -17995,7 +18075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -18015,7 +18095,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -18029,7 +18109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -18043,7 +18123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -18057,7 +18137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -18071,7 +18151,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -18085,7 +18165,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -18102,7 +18182,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -18113,7 +18193,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -18124,7 +18204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -18144,7 +18224,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -18158,7 +18238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -18172,7 +18252,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -18186,7 +18266,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -18200,7 +18280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -18220,7 +18300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -18234,7 +18314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18248,7 +18328,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -18262,7 +18342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -18282,7 +18362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -18296,7 +18376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -18310,7 +18390,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18324,7 +18404,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18338,7 +18418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18352,7 +18432,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -18372,7 +18452,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -18386,7 +18466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -18400,7 +18480,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -18420,7 +18500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -18434,7 +18514,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -18448,7 +18528,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18462,7 +18542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -18476,7 +18556,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18496,7 +18576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -18510,7 +18590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -18524,7 +18604,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18538,7 +18618,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>735</v>
       </c>
@@ -18558,7 +18638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -18572,7 +18652,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -18586,7 +18666,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -18606,7 +18686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -18620,7 +18700,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -18634,7 +18714,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -18648,7 +18728,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -18668,7 +18748,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -18682,7 +18762,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -18696,7 +18776,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18710,7 +18790,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18730,7 +18810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18744,7 +18824,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18758,7 +18838,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>398</v>
       </c>
@@ -18778,7 +18858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -18792,7 +18872,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -18806,7 +18886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -18820,7 +18900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -18834,7 +18914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -18854,7 +18934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -18868,7 +18948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -18882,7 +18962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -18896,7 +18976,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -18916,7 +18996,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -18930,7 +19010,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -18950,7 +19030,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -18970,7 +19050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -18990,7 +19070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -19004,7 +19084,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -19018,7 +19098,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -19032,7 +19112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -19052,7 +19132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -19066,7 +19146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -19080,7 +19160,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -19094,7 +19174,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -19108,7 +19188,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -19122,7 +19202,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -19142,7 +19222,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -19156,7 +19236,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -19176,7 +19256,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -19190,7 +19270,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -19204,7 +19284,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -19218,7 +19298,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -19238,7 +19318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -19252,7 +19332,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -19283,17 +19363,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -19313,7 +19393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19333,7 +19413,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -19347,7 +19427,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19367,7 +19447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19381,7 +19461,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19395,7 +19475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19409,7 +19489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -19423,7 +19503,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -19443,7 +19523,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -19463,7 +19543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -19477,7 +19557,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -19491,7 +19571,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -19511,7 +19591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -19525,7 +19605,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -19539,7 +19619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -19559,7 +19639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -19573,7 +19653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -19587,7 +19667,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -19601,7 +19681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19615,7 +19695,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -19635,7 +19715,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -19649,7 +19729,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -19663,7 +19743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -19677,7 +19757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -19691,7 +19771,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19711,7 +19791,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19725,7 +19805,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -19745,7 +19825,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19759,7 +19839,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19773,7 +19853,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -19793,7 +19873,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -19813,7 +19893,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -19827,7 +19907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -19841,7 +19921,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -19861,7 +19941,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -19881,7 +19961,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -19901,7 +19981,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -19915,7 +19995,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -19929,7 +20009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -19943,7 +20023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -19963,7 +20043,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -19977,7 +20057,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -19991,7 +20071,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -20005,7 +20085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -20025,7 +20105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -20039,7 +20119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -20059,7 +20139,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -20073,7 +20153,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -20087,7 +20167,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -20101,7 +20181,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -20121,7 +20201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -20141,7 +20221,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -20155,7 +20235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -20169,7 +20249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -20183,7 +20263,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -20197,7 +20277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -20217,7 +20297,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -20231,7 +20311,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -20245,7 +20325,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -20259,7 +20339,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -20279,7 +20359,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -20293,7 +20373,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -20307,7 +20387,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -20327,7 +20407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -20341,7 +20421,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -20355,7 +20435,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -20369,7 +20449,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -20389,7 +20469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>493</v>
       </c>
@@ -20403,7 +20483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>493</v>
       </c>
@@ -20417,7 +20497,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -20431,7 +20511,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -20463,17 +20543,17 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20493,7 +20573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -20513,7 +20593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -20527,7 +20607,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -20547,7 +20627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -20561,7 +20641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -20575,7 +20655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -20589,7 +20669,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -20609,7 +20689,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -20623,7 +20703,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -20637,7 +20717,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20651,7 +20731,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -20671,7 +20751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -20685,7 +20765,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -20699,7 +20779,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20713,7 +20793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -20733,7 +20813,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20753,7 +20833,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20767,7 +20847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -20781,7 +20861,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -20795,7 +20875,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -20809,7 +20889,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -20823,7 +20903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -20843,7 +20923,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -20857,7 +20937,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -20877,7 +20957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -20891,7 +20971,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -20905,7 +20985,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -20925,7 +21005,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>735</v>
       </c>
@@ -20945,7 +21025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20965,7 +21045,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -20985,7 +21065,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -21005,7 +21085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -21019,7 +21099,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -21039,7 +21119,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -21053,7 +21133,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -21067,7 +21147,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -21081,7 +21161,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -21101,7 +21181,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -21115,7 +21195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -21135,7 +21215,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -21155,7 +21235,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -21169,7 +21249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -21183,7 +21263,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -21197,7 +21277,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -21217,7 +21297,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -21231,7 +21311,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -21245,7 +21325,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -21259,7 +21339,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -21279,7 +21359,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -21293,7 +21373,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -21307,7 +21387,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -21327,7 +21407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -21341,7 +21421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -21355,7 +21435,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -21369,7 +21449,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -21389,7 +21469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -21403,7 +21483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -21417,7 +21497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -21437,7 +21517,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -21451,7 +21531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -21465,7 +21545,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -21479,7 +21559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9709" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DDCA1D1-F16B-4747-860D-C4065E7D4A92}"/>
+  <xr:revisionPtr revIDLastSave="9718" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E068F4-67A5-4206-A8A3-718CB0F54BEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="759">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2307,9 +2307,6 @@
     <t>Anna Blinkova (RUSSIA)</t>
   </si>
   <si>
-    <t>Zhu Lin (CHAIN)</t>
-  </si>
-  <si>
     <t>Katie Volynets (USA)</t>
   </si>
   <si>
@@ -2329,6 +2326,12 @@
   </si>
   <si>
     <t>5-7 7-5 6-4</t>
+  </si>
+  <si>
+    <t>Zhu Lin (CHINA)</t>
+  </si>
+  <si>
+    <t>3-6 7-5 7-5</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2886,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,7 +3463,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12390,10 +12393,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="3" sqref="E4 E9:E12 E15 E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12511,7 +12514,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -12539,13 +12542,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -12573,7 +12576,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12587,7 +12590,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -12601,13 +12604,13 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
+        <v>755</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>756</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -12621,7 +12624,7 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -12635,13 +12638,33 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -12658,7 +12681,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13101,7 +13124,7 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -13110,11 +13133,11 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13123,7 +13146,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -13135,11 +13158,11 @@
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.57846153846153847</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -13148,7 +13171,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.3</v>
+        <v>15.35</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -13160,11 +13183,11 @@
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.7</v>
+        <v>13.75</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.57846153846153847</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9718" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E068F4-67A5-4206-A8A3-718CB0F54BEB}"/>
+  <xr:revisionPtr revIDLastSave="9732" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB22960C-4B1F-46DE-8EAD-9BDF3FC8CA53}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4462" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="763">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2332,6 +2332,18 @@
   </si>
   <si>
     <t>3-6 7-5 7-5</t>
+  </si>
+  <si>
+    <t>BAD HOMBURG OPEN</t>
+  </si>
+  <si>
+    <t>6-3 6-7(4) 7-5</t>
+  </si>
+  <si>
+    <t>Emma Navarro (USA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 1-0 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2730,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,7 +2898,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3463,7 +3475,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,10 +4964,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -12393,20 +12401,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12665,6 +12673,54 @@
       </c>
       <c r="F21" t="s">
         <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>759</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>621</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>728</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>761</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -13124,20 +13180,20 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13146,7 +13202,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -13154,15 +13210,15 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.57692307692307687</v>
+        <v>0.57668711656441718</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -13171,7 +13227,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.35</v>
+        <v>15.4</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -13179,15 +13235,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.75</v>
+        <v>13.8</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.57692307692307687</v>
+        <v>0.57668711656441718</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9732" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB22960C-4B1F-46DE-8EAD-9BDF3FC8CA53}"/>
+  <xr:revisionPtr revIDLastSave="9750" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F38BE33-B12D-4F2B-BC42-6EDA633ADD3D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="767">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2344,6 +2344,18 @@
   </si>
   <si>
     <t>4-6 6-1 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Alycia Parks (USA)</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>6-3 2-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2444,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -2441,6 +2453,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2730,7 +2743,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2898,7 +2911,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,7 +3488,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,6 +4977,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -12401,10 +12418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12721,6 +12738,54 @@
       </c>
       <c r="F25" t="s">
         <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>764</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>765</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>763</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -13180,20 +13245,20 @@
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -13202,7 +13267,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -13210,15 +13275,15 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.57668711656441718</v>
+        <v>0.57645259938837923</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -13227,7 +13292,7 @@
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.4</v>
+        <v>15.45</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -13235,15 +13300,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.6</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.8</v>
+        <v>13.85</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.57668711656441718</v>
+        <v>0.57645259938837923</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9750" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F38BE33-B12D-4F2B-BC42-6EDA633ADD3D}"/>
+  <xr:revisionPtr revIDLastSave="9790" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD7DC81-1238-41D6-A468-45EAD0A9CC22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="776">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2356,6 +2356,33 @@
   </si>
   <si>
     <t>6-3 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>2-6 7-5 6-1</t>
+  </si>
+  <si>
+    <t>6-0, 6-1</t>
+  </si>
+  <si>
+    <t>6-3, 6-3</t>
+  </si>
+  <si>
+    <t>6-3, 6-2</t>
+  </si>
+  <si>
+    <t>Jessika Ponchet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>Renata Zarazúa (MEXICO)</t>
+  </si>
+  <si>
+    <t>Nao Hibino (JAPAN)</t>
   </si>
 </sst>
 </file>
@@ -2743,7 +2770,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2911,7 +2938,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3515,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4891,7 +4918,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4903,7 +4930,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4975,10 +5002,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5283,21 +5306,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5317,7 +5340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5334,7 +5357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -5345,7 +5368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -5356,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -5367,7 +5390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -5387,7 +5410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5420,21 +5443,21 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5454,7 +5477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -5474,7 +5497,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -5488,7 +5511,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -5508,7 +5531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -5522,7 +5545,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -5536,7 +5559,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -5556,7 +5579,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>373</v>
       </c>
@@ -5576,7 +5599,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -5590,7 +5613,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -5604,7 +5627,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -5618,7 +5641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>44</v>
       </c>
@@ -5652,7 +5675,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>54</v>
       </c>
@@ -5666,7 +5689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -5686,7 +5709,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -5700,7 +5723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -5714,7 +5737,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -5728,7 +5751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>540</v>
       </c>
@@ -5748,7 +5771,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -5762,7 +5785,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -5776,7 +5799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +5813,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>735</v>
       </c>
@@ -5810,7 +5833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -5824,7 +5847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -5844,7 +5867,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -5864,7 +5887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -5878,7 +5901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -5892,7 +5915,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -5906,7 +5929,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -5926,7 +5949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -5940,7 +5963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -5954,7 +5977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5968,7 +5991,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>550</v>
       </c>
@@ -5988,7 +6011,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -6002,7 +6025,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -6016,7 +6039,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -6030,7 +6053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +6067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -6064,7 +6087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>44</v>
       </c>
@@ -6078,7 +6101,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -6092,7 +6115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -6106,7 +6129,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -6126,7 +6149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -6140,7 +6163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -6154,7 +6177,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -6168,7 +6191,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +6205,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -6202,7 +6225,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -6216,7 +6239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6236,7 +6259,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>84</v>
       </c>
@@ -6250,7 +6273,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>44</v>
       </c>
@@ -6264,7 +6287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>54</v>
       </c>
@@ -6278,7 +6301,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>53</v>
       </c>
@@ -6292,7 +6315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>0</v>
       </c>
@@ -6306,7 +6329,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -6320,7 +6343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -6340,7 +6363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -6354,7 +6377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -6368,7 +6391,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>15</v>
       </c>
@@ -6382,7 +6405,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>562</v>
       </c>
@@ -6402,7 +6425,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>54</v>
       </c>
@@ -6416,7 +6439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>53</v>
       </c>
@@ -6430,7 +6453,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>0</v>
       </c>
@@ -6444,7 +6467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -6464,7 +6487,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -6484,7 +6507,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>16</v>
       </c>
@@ -6498,7 +6521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>16</v>
       </c>
@@ -6512,7 +6535,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>0</v>
       </c>
@@ -6539,21 +6562,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6573,7 +6596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6593,7 +6616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -6607,7 +6630,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -6621,7 +6644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -6635,7 +6658,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -6649,7 +6672,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -6669,7 +6692,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6689,7 +6712,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -6703,7 +6726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -6723,7 +6746,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
       </c>
@@ -6737,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>53</v>
       </c>
@@ -6751,7 +6774,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -6765,7 +6788,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -6785,7 +6808,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>53</v>
       </c>
@@ -6799,7 +6822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>503</v>
       </c>
@@ -6819,7 +6842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -6833,7 +6856,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -6847,7 +6870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -6861,7 +6884,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -6875,7 +6898,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6895,7 +6918,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -6909,7 +6932,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -6929,7 +6952,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -6943,7 +6966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -6957,7 +6980,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6977,7 +7000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -6991,7 +7014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -7005,7 +7028,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7019,7 +7042,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -7039,7 +7062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -7053,7 +7076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -7081,7 +7104,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -7101,7 +7124,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -7121,7 +7144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>84</v>
       </c>
@@ -7135,7 +7158,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -7155,7 +7178,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -7169,7 +7192,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>53</v>
       </c>
@@ -7183,7 +7206,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>0</v>
       </c>
@@ -7197,7 +7220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -7217,7 +7240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>84</v>
       </c>
@@ -7231,7 +7254,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>44</v>
       </c>
@@ -7245,7 +7268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -7259,7 +7282,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -7279,7 +7302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7299,7 +7322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7319,7 +7342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -7339,7 +7362,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -7353,7 +7376,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>53</v>
       </c>
@@ -7367,7 +7390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>0</v>
       </c>
@@ -7381,7 +7404,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>187</v>
       </c>
@@ -7401,7 +7424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -7415,7 +7438,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -7435,7 +7458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>53</v>
       </c>
@@ -7449,7 +7472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>0</v>
       </c>
@@ -7463,7 +7486,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>562</v>
       </c>
@@ -7483,7 +7506,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -7503,7 +7526,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>44</v>
       </c>
@@ -7517,7 +7540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -7531,7 +7554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>603</v>
       </c>
@@ -7551,7 +7574,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -7565,7 +7588,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -7607,21 +7630,21 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7641,7 +7664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7661,7 +7684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7698,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -7689,7 +7712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -7703,7 +7726,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -7723,7 +7746,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>613</v>
       </c>
@@ -7743,7 +7766,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -7763,7 +7786,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7777,7 +7800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -7791,7 +7814,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>540</v>
       </c>
@@ -7811,7 +7834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -7825,7 +7848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -7839,7 +7862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -7879,7 +7902,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -7893,7 +7916,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>622</v>
       </c>
@@ -7913,7 +7936,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>54</v>
       </c>
@@ -7927,7 +7950,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>626</v>
       </c>
@@ -7947,7 +7970,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7967,7 +7990,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -7981,7 +8004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -7995,7 +8018,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -8015,7 +8038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>628</v>
       </c>
@@ -8035,7 +8058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -8049,7 +8072,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -8069,7 +8092,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -8083,7 +8106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>257</v>
       </c>
@@ -8103,7 +8126,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -8123,7 +8146,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -8137,7 +8160,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -8151,7 +8174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>54</v>
       </c>
@@ -8165,7 +8188,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -8179,7 +8202,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>0</v>
       </c>
@@ -8193,7 +8216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>264</v>
       </c>
@@ -8213,7 +8236,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -8227,7 +8250,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -8241,7 +8264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>0</v>
       </c>
@@ -8255,7 +8278,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -8269,7 +8292,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>562</v>
       </c>
@@ -8289,7 +8312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>44</v>
       </c>
@@ -8303,7 +8326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -8317,7 +8340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -8337,7 +8360,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>44</v>
       </c>
@@ -8351,7 +8374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>54</v>
       </c>
@@ -8365,7 +8388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>639</v>
       </c>
@@ -8385,7 +8408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -8399,7 +8422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -8413,7 +8436,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -8427,7 +8450,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -8441,7 +8464,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>278</v>
       </c>
@@ -8461,7 +8484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -8475,7 +8498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -8502,21 +8525,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -8536,7 +8559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -8556,7 +8579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -8570,7 +8593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -8584,7 +8607,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -8604,7 +8627,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -8618,7 +8641,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -8632,7 +8655,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8652,7 +8675,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -8666,7 +8689,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8680,7 +8703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>210</v>
       </c>
@@ -8700,7 +8723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -8714,7 +8737,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -8728,7 +8751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -8742,7 +8765,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -8756,7 +8779,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -8776,7 +8799,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>44</v>
       </c>
@@ -8790,7 +8813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>54</v>
       </c>
@@ -8804,7 +8827,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>53</v>
       </c>
@@ -8818,7 +8841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>0</v>
       </c>
@@ -8832,7 +8855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -8846,7 +8869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -8866,7 +8889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -8880,7 +8903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -8894,7 +8917,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -8908,7 +8931,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>226</v>
       </c>
@@ -8928,7 +8951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8942,7 +8965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -8956,7 +8979,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -8970,7 +8993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -8984,7 +9007,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8998,7 +9021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>734</v>
       </c>
@@ -9018,7 +9041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>54</v>
       </c>
@@ -9032,7 +9055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -9046,7 +9069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>657</v>
       </c>
@@ -9066,7 +9089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -9080,7 +9103,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>735</v>
       </c>
@@ -9100,7 +9123,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -9114,7 +9137,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>661</v>
       </c>
@@ -9134,7 +9157,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -9154,7 +9177,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>84</v>
       </c>
@@ -9168,7 +9191,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>44</v>
       </c>
@@ -9182,7 +9205,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>54</v>
       </c>
@@ -9196,7 +9219,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>53</v>
       </c>
@@ -9210,7 +9233,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>243</v>
       </c>
@@ -9230,7 +9253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>54</v>
       </c>
@@ -9244,7 +9267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>53</v>
       </c>
@@ -9258,7 +9281,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>0</v>
       </c>
@@ -9272,7 +9295,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -9286,7 +9309,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -9306,7 +9329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>84</v>
       </c>
@@ -9320,7 +9343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -9334,7 +9357,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -9348,7 +9371,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>340</v>
       </c>
@@ -9368,7 +9391,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -9382,7 +9405,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>53</v>
       </c>
@@ -9396,7 +9419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>0</v>
       </c>
@@ -9410,7 +9433,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>15</v>
       </c>
@@ -9424,7 +9447,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -9444,7 +9467,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -9458,7 +9481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>53</v>
       </c>
@@ -9472,7 +9495,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>0</v>
       </c>
@@ -9486,7 +9509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>15</v>
       </c>
@@ -9500,7 +9523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -9520,7 +9543,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -9534,7 +9557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -9548,7 +9571,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -9568,7 +9591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>84</v>
       </c>
@@ -9582,7 +9605,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -9602,7 +9625,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>53</v>
       </c>
@@ -9616,7 +9639,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>0</v>
       </c>
@@ -9630,7 +9653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>15</v>
       </c>
@@ -9644,7 +9667,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>562</v>
       </c>
@@ -9664,7 +9687,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -9684,7 +9707,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>44</v>
       </c>
@@ -9698,7 +9721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -9712,7 +9735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>639</v>
       </c>
@@ -9732,7 +9755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>54</v>
       </c>
@@ -9746,7 +9769,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -9766,7 +9789,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -9780,7 +9803,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -9794,7 +9817,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>195</v>
       </c>
@@ -9808,7 +9831,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -9835,21 +9858,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -9869,7 +9892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -9889,7 +9912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -9903,7 +9926,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -9917,7 +9940,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -9931,7 +9954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -9945,7 +9968,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -9965,7 +9988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>84</v>
       </c>
@@ -9979,7 +10002,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>44</v>
       </c>
@@ -9993,7 +10016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>54</v>
       </c>
@@ -10007,7 +10030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>53</v>
       </c>
@@ -10021,7 +10044,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -10035,7 +10058,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -10049,7 +10072,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>613</v>
       </c>
@@ -10069,7 +10092,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -10083,7 +10106,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>210</v>
       </c>
@@ -10103,7 +10126,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>54</v>
       </c>
@@ -10117,7 +10140,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>53</v>
       </c>
@@ -10131,7 +10154,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>0</v>
       </c>
@@ -10145,7 +10168,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -10165,7 +10188,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -10179,7 +10202,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -10193,7 +10216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
@@ -10213,7 +10236,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>550</v>
       </c>
@@ -10233,7 +10256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -10247,7 +10270,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -10261,7 +10284,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>735</v>
       </c>
@@ -10281,7 +10304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -10295,7 +10318,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -10309,7 +10332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -10329,7 +10352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>54</v>
       </c>
@@ -10343,7 +10366,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>53</v>
       </c>
@@ -10357,7 +10380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -10377,7 +10400,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -10391,7 +10414,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -10405,7 +10428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>54</v>
       </c>
@@ -10419,7 +10442,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -10439,7 +10462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -10453,7 +10476,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -10467,7 +10490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -10481,7 +10504,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>15</v>
       </c>
@@ -10495,7 +10518,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -10515,7 +10538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>84</v>
       </c>
@@ -10529,7 +10552,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -10549,7 +10572,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -10569,7 +10592,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -10589,7 +10612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -10603,7 +10626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -10623,7 +10646,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>562</v>
       </c>
@@ -10643,7 +10666,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>54</v>
       </c>
@@ -10657,7 +10680,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -10677,7 +10700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -10691,7 +10714,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>54</v>
       </c>
@@ -10705,7 +10728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>53</v>
       </c>
@@ -10719,7 +10742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>0</v>
       </c>
@@ -10733,7 +10756,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -10747,7 +10770,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10767,7 +10790,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +10804,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>16</v>
       </c>
@@ -10808,21 +10831,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -10842,7 +10865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10862,7 +10885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -10876,7 +10899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -10896,7 +10919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -10910,7 +10933,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -10924,7 +10947,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -10944,7 +10967,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -10964,7 +10987,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -10978,7 +11001,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -10992,7 +11015,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>734</v>
       </c>
@@ -11012,7 +11035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -11026,7 +11049,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -11040,7 +11063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -11054,7 +11077,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -11068,7 +11091,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -11088,7 +11111,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -11108,7 +11131,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -11128,7 +11151,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -11148,7 +11171,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -11162,7 +11185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -11176,7 +11199,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -11196,7 +11219,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>84</v>
       </c>
@@ -11210,7 +11233,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -11224,7 +11247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>181</v>
       </c>
@@ -11244,7 +11267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>44</v>
       </c>
@@ -11258,7 +11281,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -11278,7 +11301,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -11298,7 +11321,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>84</v>
       </c>
@@ -11312,7 +11335,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -11326,7 +11349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>562</v>
       </c>
@@ -11346,7 +11369,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -11366,7 +11389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>44</v>
       </c>
@@ -11380,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -11394,7 +11417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -11408,7 +11431,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -11435,21 +11458,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11469,7 +11492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11489,7 +11512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11503,7 +11526,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11517,7 +11540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -11531,7 +11554,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -11551,7 +11574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11565,7 +11588,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11592,21 +11615,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11626,7 +11649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11659,21 +11682,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11693,7 +11716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>737</v>
       </c>
@@ -11726,21 +11749,21 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11760,7 +11783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -11780,7 +11803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -11794,7 +11817,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -11814,7 +11837,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -11834,7 +11857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -11848,7 +11871,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>44</v>
       </c>
@@ -11862,7 +11885,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>54</v>
       </c>
@@ -11889,21 +11912,21 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -11923,7 +11946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -11943,7 +11966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -11957,7 +11980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -11971,7 +11994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -11991,7 +12014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -12011,7 +12034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -12025,7 +12048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -12039,7 +12062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>0</v>
       </c>
@@ -12053,7 +12076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -12067,7 +12090,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12084,7 +12107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>72</v>
       </c>
@@ -12095,7 +12118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>73</v>
       </c>
@@ -12106,7 +12129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -12126,7 +12149,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -12146,7 +12169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>99</v>
       </c>
@@ -12160,7 +12183,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -12180,7 +12203,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -12200,7 +12223,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -12214,7 +12237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -12228,7 +12251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -12248,7 +12271,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>99</v>
       </c>
@@ -12262,7 +12285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
@@ -12276,7 +12299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -12296,7 +12319,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -12316,7 +12339,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>54</v>
       </c>
@@ -12330,7 +12353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>53</v>
       </c>
@@ -12344,7 +12367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>0</v>
       </c>
@@ -12358,7 +12381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -12372,7 +12395,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -12392,7 +12415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -12418,23 +12441,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -12454,7 +12477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12474,7 +12497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -12494,7 +12517,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -12508,7 +12531,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>748</v>
       </c>
@@ -12528,7 +12551,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -12548,7 +12571,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>84</v>
       </c>
@@ -12562,7 +12585,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -12576,7 +12599,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -12590,7 +12613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -12604,7 +12627,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -12624,7 +12647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -12638,7 +12661,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>734</v>
       </c>
@@ -12658,7 +12681,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>44</v>
       </c>
@@ -12672,7 +12695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>735</v>
       </c>
@@ -12692,7 +12715,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>759</v>
       </c>
@@ -12712,7 +12735,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -12726,7 +12749,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -12740,7 +12763,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -12760,7 +12783,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>84</v>
       </c>
@@ -12774,7 +12797,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>44</v>
       </c>
@@ -12786,6 +12809,136 @@
       </c>
       <c r="F29" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>767</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>707</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>755</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>775</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>774</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>772</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -12802,21 +12955,21 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -12836,7 +12989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -12858,7 +13011,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -12880,7 +13033,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -12902,7 +13055,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12924,7 +13077,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -12946,7 +13099,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -12967,7 +13120,7 @@
         <v>0.734375</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -12988,7 +13141,7 @@
         <v>0.74242424242424243</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -13009,7 +13162,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -13030,7 +13183,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -13051,7 +13204,7 @@
         <v>0.61224489795918369</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -13072,7 +13225,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -13093,7 +13246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -13114,7 +13267,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -13135,7 +13288,7 @@
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -13156,7 +13309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -13177,7 +13330,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -13198,7 +13351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -13219,7 +13372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
@@ -13240,34 +13393,34 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2024</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4">
         <f>SUM(B2:B21)</f>
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C22" s="4">
         <f>SUM(C2:C21)</f>
@@ -13275,24 +13428,24 @@
       </c>
       <c r="D22" s="4">
         <f>SUM(D2:D21)</f>
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(E2:E21)</f>
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.57645259938837923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5781487101669196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.45</v>
+        <v>15.6</v>
       </c>
       <c r="C23" s="4">
         <f>AVERAGE(C2:C21)</f>
@@ -13300,15 +13453,15 @@
       </c>
       <c r="D23" s="4">
         <f>AVERAGE(D2:D21)</f>
-        <v>32.700000000000003</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="E23" s="4">
         <f>AVERAGE(E2:E21)</f>
-        <v>13.85</v>
+        <v>13.9</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.57645259938837923</v>
+        <v>0.5781487101669196</v>
       </c>
     </row>
   </sheetData>
@@ -13333,21 +13486,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13367,7 +13520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -13387,7 +13540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -13401,7 +13554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -13415,7 +13568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -13429,7 +13582,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -13443,7 +13596,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -13463,7 +13616,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -13477,7 +13630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -13497,7 +13650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -13511,7 +13664,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -13525,7 +13678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -13539,7 +13692,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -13553,7 +13706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -13573,7 +13726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>84</v>
       </c>
@@ -13587,7 +13740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -13607,7 +13760,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -13621,7 +13774,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -13635,7 +13788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -13649,7 +13802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -13663,7 +13816,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -13683,7 +13836,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -13703,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -13717,7 +13870,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
@@ -13737,7 +13890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>54</v>
       </c>
@@ -13751,7 +13904,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>53</v>
       </c>
@@ -13765,7 +13918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>170</v>
       </c>
@@ -13785,7 +13938,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -13805,7 +13958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>84</v>
       </c>
@@ -13819,7 +13972,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -13839,7 +13992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -13859,7 +14012,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -13873,7 +14026,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -13887,7 +14040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -13907,7 +14060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>99</v>
       </c>
@@ -13921,7 +14074,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -13935,7 +14088,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>187</v>
       </c>
@@ -13955,7 +14108,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>84</v>
       </c>
@@ -13969,7 +14122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -13989,7 +14142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -14009,7 +14162,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -14029,7 +14182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -14049,7 +14202,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -14063,7 +14216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>53</v>
       </c>
@@ -14077,7 +14230,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>0</v>
       </c>
@@ -14091,7 +14244,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>202</v>
       </c>
@@ -14124,21 +14277,21 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -14158,7 +14311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -14178,7 +14331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>84</v>
       </c>
@@ -14192,7 +14345,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -14206,7 +14359,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -14220,7 +14373,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -14240,7 +14393,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -14254,7 +14407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -14268,7 +14421,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>53</v>
       </c>
@@ -14282,7 +14435,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -14302,7 +14455,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -14316,7 +14469,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -14330,7 +14483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -14350,7 +14503,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>84</v>
       </c>
@@ -14364,7 +14517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -14378,7 +14531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -14392,7 +14545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -14412,7 +14565,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>84</v>
       </c>
@@ -14426,7 +14579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -14440,7 +14593,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -14454,7 +14607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -14474,7 +14627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -14488,7 +14641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -14508,7 +14661,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -14522,7 +14675,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -14542,7 +14695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -14556,7 +14709,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -14570,7 +14723,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -14590,7 +14743,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -14604,7 +14757,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>44</v>
       </c>
@@ -14618,7 +14771,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -14638,7 +14791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -14652,7 +14805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -14666,7 +14819,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -14686,7 +14839,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -14700,7 +14853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>44</v>
       </c>
@@ -14714,7 +14867,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -14734,7 +14887,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>54</v>
       </c>
@@ -14748,7 +14901,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>252</v>
       </c>
@@ -14768,7 +14921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -14782,7 +14935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -14796,7 +14949,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>0</v>
       </c>
@@ -14810,7 +14963,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -14830,7 +14983,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>54</v>
       </c>
@@ -14844,7 +14997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -14858,7 +15011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -14872,7 +15025,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14886,7 +15039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -14906,7 +15059,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -14920,7 +15073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -14934,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -14948,7 +15101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -14962,7 +15115,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -14982,7 +15135,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>84</v>
       </c>
@@ -14996,7 +15149,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>44</v>
       </c>
@@ -15010,7 +15163,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -15024,7 +15177,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -15044,7 +15197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -15064,7 +15217,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>113</v>
       </c>
@@ -15084,7 +15237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -15098,7 +15251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -15112,7 +15265,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>0</v>
       </c>
@@ -15126,7 +15279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>15</v>
       </c>
@@ -15140,7 +15293,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -15160,7 +15313,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -15174,7 +15327,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>275</v>
       </c>
@@ -15194,7 +15347,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -15214,7 +15367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>54</v>
       </c>
@@ -15228,7 +15381,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>53</v>
       </c>
@@ -15242,7 +15395,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>0</v>
       </c>
@@ -15256,7 +15409,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>15</v>
       </c>
@@ -15270,7 +15423,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -15290,7 +15443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>54</v>
       </c>
@@ -15304,7 +15457,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>53</v>
       </c>
@@ -15318,7 +15471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>0</v>
       </c>
@@ -15332,7 +15485,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>15</v>
       </c>
@@ -15360,21 +15513,21 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -15394,7 +15547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -15414,7 +15567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -15428,7 +15581,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>53</v>
       </c>
@@ -15442,7 +15595,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>294</v>
       </c>
@@ -15462,7 +15615,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -15476,7 +15629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -15490,7 +15643,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15510,7 +15663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>84</v>
       </c>
@@ -15524,7 +15677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -15538,7 +15691,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -15558,7 +15711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>54</v>
       </c>
@@ -15572,7 +15725,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>53</v>
       </c>
@@ -15586,7 +15739,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -15606,7 +15759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -15620,7 +15773,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -15634,7 +15787,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -15648,7 +15801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -15662,7 +15815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -15682,7 +15835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
@@ -15696,7 +15849,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>54</v>
       </c>
@@ -15710,7 +15863,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
@@ -15724,7 +15877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -15744,7 +15897,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -15758,7 +15911,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -15772,7 +15925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>53</v>
       </c>
@@ -15786,7 +15939,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>231</v>
       </c>
@@ -15806,7 +15959,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -15820,7 +15973,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>53</v>
       </c>
@@ -15834,7 +15987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -15848,7 +16001,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15862,7 +16015,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -15882,7 +16035,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -15896,7 +16049,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -15910,7 +16063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>0</v>
       </c>
@@ -15924,7 +16077,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>15</v>
       </c>
@@ -15938,7 +16091,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>323</v>
       </c>
@@ -15958,7 +16111,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>54</v>
       </c>
@@ -15972,7 +16125,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -15992,7 +16145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>44</v>
       </c>
@@ -16006,7 +16159,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -16020,7 +16173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>735</v>
       </c>
@@ -16040,7 +16193,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -16054,7 +16207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>54</v>
       </c>
@@ -16068,7 +16221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>53</v>
       </c>
@@ -16082,7 +16235,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>0</v>
       </c>
@@ -16096,7 +16249,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>15</v>
       </c>
@@ -16110,7 +16263,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -16130,7 +16283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>84</v>
       </c>
@@ -16144,7 +16297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>44</v>
       </c>
@@ -16158,7 +16311,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -16178,7 +16331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>54</v>
       </c>
@@ -16192,7 +16345,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>53</v>
       </c>
@@ -16206,7 +16359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>0</v>
       </c>
@@ -16220,7 +16373,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -16234,7 +16387,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -16254,7 +16407,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>84</v>
       </c>
@@ -16268,7 +16421,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>44</v>
       </c>
@@ -16282,7 +16435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>54</v>
       </c>
@@ -16296,7 +16449,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -16316,7 +16469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>54</v>
       </c>
@@ -16330,7 +16483,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>53</v>
       </c>
@@ -16344,7 +16497,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>0</v>
       </c>
@@ -16358,7 +16511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>15</v>
       </c>
@@ -16372,7 +16525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>346</v>
       </c>
@@ -16392,7 +16545,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>42</v>
       </c>
@@ -16412,7 +16565,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>54</v>
       </c>
@@ -16426,7 +16579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -16440,7 +16593,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -16460,7 +16613,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>257</v>
       </c>
@@ -16480,7 +16633,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -16494,7 +16647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -16508,7 +16661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -16522,7 +16675,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -16536,7 +16689,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -16556,7 +16709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>84</v>
       </c>
@@ -16570,7 +16723,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>44</v>
       </c>
@@ -16584,7 +16737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>54</v>
       </c>
@@ -16598,7 +16751,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>53</v>
       </c>
@@ -16612,7 +16765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>0</v>
       </c>
@@ -16626,7 +16779,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>15</v>
       </c>
@@ -16640,7 +16793,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -16660,7 +16813,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -16680,7 +16833,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -16700,7 +16853,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>54</v>
       </c>
@@ -16714,7 +16867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>53</v>
       </c>
@@ -16728,7 +16881,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>0</v>
       </c>
@@ -16742,7 +16895,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>278</v>
       </c>
@@ -16762,7 +16915,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -16782,7 +16935,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>16</v>
       </c>
@@ -16796,7 +16949,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>16</v>
       </c>
@@ -16810,7 +16963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>195</v>
       </c>
@@ -16838,21 +16991,21 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16872,7 +17025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -16892,7 +17045,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -16912,7 +17065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -16926,7 +17079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -16940,7 +17093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -16954,7 +17107,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -16971,7 +17124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -16982,7 +17135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>373</v>
       </c>
@@ -17002,7 +17155,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>54</v>
       </c>
@@ -17016,7 +17169,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -17036,7 +17189,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -17050,7 +17203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -17064,7 +17217,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -17078,7 +17231,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -17092,7 +17245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -17106,7 +17259,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -17126,7 +17279,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -17140,7 +17293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -17154,7 +17307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -17168,7 +17321,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -17188,7 +17341,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -17202,7 +17355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -17216,7 +17369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -17230,7 +17383,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -17244,7 +17397,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -17264,7 +17417,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -17278,7 +17431,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>53</v>
       </c>
@@ -17292,7 +17445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>0</v>
       </c>
@@ -17306,7 +17459,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -17326,7 +17479,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -17346,7 +17499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>54</v>
       </c>
@@ -17360,7 +17513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>735</v>
       </c>
@@ -17380,7 +17533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -17394,7 +17547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>388</v>
       </c>
@@ -17414,7 +17567,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>53</v>
       </c>
@@ -17428,7 +17581,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -17448,7 +17601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>84</v>
       </c>
@@ -17462,7 +17615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -17476,7 +17629,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -17490,7 +17643,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -17504,7 +17657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -17524,7 +17677,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -17544,7 +17697,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>84</v>
       </c>
@@ -17558,7 +17711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -17572,7 +17725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>54</v>
       </c>
@@ -17586,7 +17739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>398</v>
       </c>
@@ -17606,7 +17759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -17620,7 +17773,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -17634,7 +17787,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -17648,7 +17801,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>15</v>
       </c>
@@ -17662,7 +17815,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>42</v>
       </c>
@@ -17682,7 +17835,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>54</v>
       </c>
@@ -17696,7 +17849,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>181</v>
       </c>
@@ -17716,7 +17869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -17730,7 +17883,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -17744,7 +17897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -17758,7 +17911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>15</v>
       </c>
@@ -17772,7 +17925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>257</v>
       </c>
@@ -17792,7 +17945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -17806,7 +17959,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>0</v>
       </c>
@@ -17820,7 +17973,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>15</v>
       </c>
@@ -17834,7 +17987,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -17854,7 +18007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>84</v>
       </c>
@@ -17868,7 +18021,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -17882,7 +18035,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>54</v>
       </c>
@@ -17896,7 +18049,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -17910,7 +18063,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -17924,7 +18077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -17944,7 +18097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>54</v>
       </c>
@@ -17958,7 +18111,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>53</v>
       </c>
@@ -17972,7 +18125,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>0</v>
       </c>
@@ -17986,7 +18139,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>15</v>
       </c>
@@ -18000,7 +18153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -18020,7 +18173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>54</v>
       </c>
@@ -18034,7 +18187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>53</v>
       </c>
@@ -18048,7 +18201,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>0</v>
       </c>
@@ -18062,7 +18215,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>15</v>
       </c>
@@ -18076,7 +18229,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -18096,7 +18249,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>16</v>
       </c>
@@ -18110,7 +18263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>16</v>
       </c>
@@ -18124,7 +18277,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>0</v>
       </c>
@@ -18138,7 +18291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>15</v>
       </c>
@@ -18165,21 +18318,21 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -18199,7 +18352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -18219,7 +18372,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -18239,7 +18392,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -18253,7 +18406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -18267,7 +18420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -18281,7 +18434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -18295,7 +18448,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
       </c>
@@ -18309,7 +18462,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -18326,7 +18479,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -18337,7 +18490,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>107</v>
       </c>
@@ -18348,7 +18501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -18368,7 +18521,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -18382,7 +18535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -18396,7 +18549,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -18410,7 +18563,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -18424,7 +18577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -18444,7 +18597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>53</v>
       </c>
@@ -18458,7 +18611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -18472,7 +18625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -18486,7 +18639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -18506,7 +18659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>44</v>
       </c>
@@ -18520,7 +18673,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -18534,7 +18687,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -18548,7 +18701,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -18562,7 +18715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -18576,7 +18729,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>226</v>
       </c>
@@ -18596,7 +18749,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -18610,7 +18763,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -18624,7 +18777,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -18644,7 +18797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -18658,7 +18811,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>53</v>
       </c>
@@ -18672,7 +18825,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>0</v>
       </c>
@@ -18686,7 +18839,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -18700,7 +18853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -18720,7 +18873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>53</v>
       </c>
@@ -18734,7 +18887,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
@@ -18748,7 +18901,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>15</v>
       </c>
@@ -18762,7 +18915,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>735</v>
       </c>
@@ -18782,7 +18935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -18796,7 +18949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>54</v>
       </c>
@@ -18810,7 +18963,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -18830,7 +18983,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>54</v>
       </c>
@@ -18844,7 +18997,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>53</v>
       </c>
@@ -18858,7 +19011,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>0</v>
       </c>
@@ -18872,7 +19025,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>432</v>
       </c>
@@ -18892,7 +19045,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>53</v>
       </c>
@@ -18906,7 +19059,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>0</v>
       </c>
@@ -18920,7 +19073,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -18934,7 +19087,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -18954,7 +19107,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>84</v>
       </c>
@@ -18968,7 +19121,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>44</v>
       </c>
@@ -18982,7 +19135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>398</v>
       </c>
@@ -19002,7 +19155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>54</v>
       </c>
@@ -19016,7 +19169,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -19030,7 +19183,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>0</v>
       </c>
@@ -19044,7 +19197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -19058,7 +19211,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -19078,7 +19231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>84</v>
       </c>
@@ -19092,7 +19245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>44</v>
       </c>
@@ -19106,7 +19259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>54</v>
       </c>
@@ -19120,7 +19273,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -19140,7 +19293,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -19154,7 +19307,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -19174,7 +19327,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>42</v>
       </c>
@@ -19194,7 +19347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -19214,7 +19367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>53</v>
       </c>
@@ -19228,7 +19381,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>0</v>
       </c>
@@ -19242,7 +19395,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>15</v>
       </c>
@@ -19256,7 +19409,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -19276,7 +19429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>84</v>
       </c>
@@ -19290,7 +19443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>44</v>
       </c>
@@ -19304,7 +19457,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>54</v>
       </c>
@@ -19318,7 +19471,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>53</v>
       </c>
@@ -19332,7 +19485,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>0</v>
       </c>
@@ -19346,7 +19499,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -19366,7 +19519,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>54</v>
       </c>
@@ -19380,7 +19533,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -19400,7 +19553,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>44</v>
       </c>
@@ -19414,7 +19567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>54</v>
       </c>
@@ -19428,7 +19581,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>53</v>
       </c>
@@ -19442,7 +19595,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -19462,7 +19615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>16</v>
       </c>
@@ -19476,7 +19629,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>16</v>
       </c>
@@ -19503,21 +19656,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -19537,7 +19690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -19557,7 +19710,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>53</v>
       </c>
@@ -19571,7 +19724,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -19591,7 +19744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -19605,7 +19758,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -19619,7 +19772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -19633,7 +19786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -19647,7 +19800,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -19667,7 +19820,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>373</v>
       </c>
@@ -19687,7 +19840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -19701,7 +19854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>0</v>
       </c>
@@ -19715,7 +19868,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -19735,7 +19888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -19749,7 +19902,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>54</v>
       </c>
@@ -19763,7 +19916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -19783,7 +19936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>44</v>
       </c>
@@ -19797,7 +19950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -19811,7 +19964,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>53</v>
       </c>
@@ -19825,7 +19978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -19839,7 +19992,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -19859,7 +20012,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>54</v>
       </c>
@@ -19873,7 +20026,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>53</v>
       </c>
@@ -19887,7 +20040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -19901,7 +20054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>15</v>
       </c>
@@ -19915,7 +20068,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -19935,7 +20088,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>54</v>
       </c>
@@ -19949,7 +20102,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>735</v>
       </c>
@@ -19969,7 +20122,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -19983,7 +20136,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>54</v>
       </c>
@@ -19997,7 +20150,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -20017,7 +20170,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -20037,7 +20190,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>84</v>
       </c>
@@ -20051,7 +20204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -20065,7 +20218,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -20085,7 +20238,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -20105,7 +20258,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>474</v>
       </c>
@@ -20125,7 +20278,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>44</v>
       </c>
@@ -20139,7 +20292,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>54</v>
       </c>
@@ -20153,7 +20306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>
@@ -20167,7 +20320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -20187,7 +20340,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>54</v>
       </c>
@@ -20201,7 +20354,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>53</v>
       </c>
@@ -20215,7 +20368,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -20229,7 +20382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -20249,7 +20402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>54</v>
       </c>
@@ -20263,7 +20416,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>257</v>
       </c>
@@ -20283,7 +20436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>54</v>
       </c>
@@ -20297,7 +20450,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>53</v>
       </c>
@@ -20311,7 +20464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>0</v>
       </c>
@@ -20325,7 +20478,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -20345,7 +20498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -20365,7 +20518,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>54</v>
       </c>
@@ -20379,7 +20532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>53</v>
       </c>
@@ -20393,7 +20546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>0</v>
       </c>
@@ -20407,7 +20560,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -20421,7 +20574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -20441,7 +20594,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>44</v>
       </c>
@@ -20455,7 +20608,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>54</v>
       </c>
@@ -20469,7 +20622,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>53</v>
       </c>
@@ -20483,7 +20636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>191</v>
       </c>
@@ -20503,7 +20656,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>44</v>
       </c>
@@ -20517,7 +20670,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>54</v>
       </c>
@@ -20531,7 +20684,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -20551,7 +20704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>53</v>
       </c>
@@ -20565,7 +20718,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>0</v>
       </c>
@@ -20579,7 +20732,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>15</v>
       </c>
@@ -20593,7 +20746,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>492</v>
       </c>
@@ -20613,7 +20766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>493</v>
       </c>
@@ -20627,7 +20780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>493</v>
       </c>
@@ -20641,7 +20794,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>0</v>
       </c>
@@ -20655,7 +20808,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>15</v>
       </c>
@@ -20683,21 +20836,21 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20717,7 +20870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>294</v>
       </c>
@@ -20737,7 +20890,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>54</v>
       </c>
@@ -20751,7 +20904,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -20771,7 +20924,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>84</v>
       </c>
@@ -20785,7 +20938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>44</v>
       </c>
@@ -20799,7 +20952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -20813,7 +20966,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -20833,7 +20986,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>44</v>
       </c>
@@ -20847,7 +21000,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>54</v>
       </c>
@@ -20861,7 +21014,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20875,7 +21028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -20895,7 +21048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>54</v>
       </c>
@@ -20909,7 +21062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>53</v>
       </c>
@@ -20923,7 +21076,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>0</v>
       </c>
@@ -20937,7 +21090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>503</v>
       </c>
@@ -20957,7 +21110,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>149</v>
       </c>
@@ -20977,7 +21130,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>44</v>
       </c>
@@ -20991,7 +21144,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>54</v>
       </c>
@@ -21005,7 +21158,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -21019,7 +21172,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>0</v>
       </c>
@@ -21033,7 +21186,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -21047,7 +21200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -21067,7 +21220,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -21081,7 +21234,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -21101,7 +21254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>54</v>
       </c>
@@ -21115,7 +21268,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>53</v>
       </c>
@@ -21129,7 +21282,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -21149,7 +21302,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>735</v>
       </c>
@@ -21169,7 +21322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -21189,7 +21342,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>432</v>
       </c>
@@ -21209,7 +21362,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -21229,7 +21382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>84</v>
       </c>
@@ -21243,7 +21396,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -21263,7 +21416,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>54</v>
       </c>
@@ -21277,7 +21430,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>53</v>
       </c>
@@ -21291,7 +21444,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>0</v>
       </c>
@@ -21305,7 +21458,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -21325,7 +21478,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>84</v>
       </c>
@@ -21339,7 +21492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -21359,7 +21512,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -21379,7 +21532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>44</v>
       </c>
@@ -21393,7 +21546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -21407,7 +21560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>53</v>
       </c>
@@ -21421,7 +21574,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>257</v>
       </c>
@@ -21441,7 +21594,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -21455,7 +21608,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>53</v>
       </c>
@@ -21469,7 +21622,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -21483,7 +21636,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>187</v>
       </c>
@@ -21503,7 +21656,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>84</v>
       </c>
@@ -21517,7 +21670,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>44</v>
       </c>
@@ -21531,7 +21684,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -21551,7 +21704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>54</v>
       </c>
@@ -21565,7 +21718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>53</v>
       </c>
@@ -21579,7 +21732,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>0</v>
       </c>
@@ -21593,7 +21746,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>191</v>
       </c>
@@ -21613,7 +21766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>54</v>
       </c>
@@ -21627,7 +21780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>53</v>
       </c>
@@ -21641,7 +21794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
@@ -21661,7 +21814,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>54</v>
       </c>
@@ -21675,7 +21828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>53</v>
       </c>
@@ -21689,7 +21842,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>0</v>
       </c>
@@ -21703,7 +21856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>15</v>
       </c>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9790" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD7DC81-1238-41D6-A468-45EAD0A9CC22}"/>
+  <xr:revisionPtr revIDLastSave="9800" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACC92A2-029E-40E2-847C-C14FA4E50A08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="777">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2383,6 +2383,9 @@
   </si>
   <si>
     <t>Nao Hibino (JAPAN)</t>
+  </si>
+  <si>
+    <t>DUBAI OPEN</t>
   </si>
 </sst>
 </file>
@@ -4918,7 +4921,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4930,7 +4933,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5306,8 +5309,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5443,13 +5446,13 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -5581,7 +5584,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -6562,13 +6565,13 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7630,8 +7633,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8525,8 +8528,8 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9858,8 +9861,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10831,8 +10834,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11458,8 +11461,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11615,8 +11618,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11682,8 +11685,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11749,8 +11752,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11912,8 +11915,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12443,8 +12446,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12954,8 +12957,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13486,8 +13489,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14277,8 +14280,8 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15513,8 +15516,8 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16991,7 +16994,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17137,7 +17140,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -18318,13 +18321,13 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -18503,7 +18506,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -19656,8 +19659,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19822,7 +19825,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -20836,13 +20839,13 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -21030,7 +21033,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>776</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9800" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACC92A2-029E-40E2-847C-C14FA4E50A08}"/>
+  <xr:revisionPtr revIDLastSave="9805" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40584466-0B2C-409E-B00A-9E544F5CBF2C}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="4" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -34,8 +34,6 @@
     <sheet name="2023" sheetId="33" r:id="rId19"/>
     <sheet name="2024" sheetId="34" r:id="rId20"/>
     <sheet name="Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2780,7 +2778,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1182-4792-B22D-E102AC912FE8}"/>
+              <c16:uniqueId val="{00000000-5CFD-4F2C-A2DD-EA04C4934E66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2948,7 +2946,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1182-4792-B22D-E102AC912FE8}"/>
+              <c16:uniqueId val="{00000001-5CFD-4F2C-A2DD-EA04C4934E66}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3250,6 +3248,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3526,7 +3529,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D44-46B5-9D42-772C5B4F352B}"/>
+              <c16:uniqueId val="{00000001-3C09-41DF-B407-6DFF69F6F2A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3828,6 +3831,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4917,47 +4925,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3B9A48DA-7DB9-49C2-911E-857A50019EFE}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B05507AA-4743-4BAA-A79D-5DEDFC269037}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5582E82D-1908-B00C-5BD6-336940D21703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D51D6AA-AA1D-1404-B352-433911FD4BB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4970,27 +4962,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9493D60-CACE-1760-556C-CBD3D87C2ED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CCD776-63E1-B70F-C48C-2AFBAFE9E82C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4998,13 +4993,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12957,8 +12956,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13479,6 +13478,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15516,7 +15516,7 @@
   </sheetPr>
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9805" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40584466-0B2C-409E-B00A-9E544F5CBF2C}"/>
+  <xr:revisionPtr revIDLastSave="9809" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DDD615-8B50-420A-B2A0-92C36468EBAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="774">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2011,9 +2011,6 @@
     <t>Kateryna Volodko (UKRAINE)</t>
   </si>
   <si>
-    <t>Daria Kasatkina (RUSSIA)</t>
-  </si>
-  <si>
     <t>Viktorija Golubic (SWITZERLAND)</t>
   </si>
   <si>
@@ -2362,15 +2359,6 @@
     <t>2-6 7-5 6-1</t>
   </si>
   <si>
-    <t>6-0, 6-1</t>
-  </si>
-  <si>
-    <t>6-3, 6-3</t>
-  </si>
-  <si>
-    <t>6-3, 6-2</t>
-  </si>
-  <si>
     <t>Jessika Ponchet (FRANCE)</t>
   </si>
   <si>
@@ -2384,6 +2372,9 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -5563,7 +5554,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5583,7 +5574,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -5817,7 +5808,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -6108,7 +6099,7 @@
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -6564,7 +6555,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6730,7 +6721,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7046,7 +7037,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -7632,7 +7623,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -7770,7 +7761,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -8527,7 +8518,7 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -8792,7 +8783,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -8806,7 +8797,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -8930,7 +8921,7 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8978,7 +8969,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9006,7 +8997,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9025,7 +9016,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -9073,7 +9064,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -9082,7 +9073,7 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -9102,12 +9093,12 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -9122,7 +9113,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -9141,7 +9132,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -9150,13 +9141,13 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
+        <v>661</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
         <v>662</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9170,13 +9161,13 @@
         <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9184,7 +9175,7 @@
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -9218,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9232,7 +9223,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9280,7 +9271,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9294,7 +9285,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9322,7 +9313,7 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -9356,7 +9347,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9370,7 +9361,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9390,7 +9381,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9398,13 +9389,13 @@
         <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9412,7 +9403,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -9426,13 +9417,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
+        <v>676</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
         <v>677</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9460,7 +9451,7 @@
         <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9494,7 +9485,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9550,7 +9541,7 @@
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -9584,7 +9575,7 @@
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -9604,7 +9595,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9618,7 +9609,7 @@
         <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -9638,7 +9629,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9680,7 +9671,7 @@
         <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
@@ -9706,7 +9697,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9762,7 +9753,7 @@
         <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>641</v>
@@ -9788,7 +9779,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9830,7 +9821,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,8 +9851,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9933,7 +9924,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -9947,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -9981,7 +9972,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -9995,13 +9986,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>692</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10043,7 +10034,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10051,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -10071,7 +10062,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10085,7 +10076,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -10099,7 +10090,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
@@ -10125,7 +10116,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10153,7 +10144,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10167,7 +10158,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10181,7 +10172,7 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -10201,7 +10192,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10209,7 +10200,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -10235,7 +10226,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10249,7 +10240,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -10283,12 +10274,12 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -10311,13 +10302,13 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10345,7 +10336,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10365,7 +10356,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10393,13 +10384,13 @@
         <v>85</v>
       </c>
       <c r="D42" t="s">
+        <v>706</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>707</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10407,7 +10398,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -10435,13 +10426,13 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10483,7 +10474,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -10503,7 +10494,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,13 +10502,13 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10545,13 +10536,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10565,13 +10556,13 @@
         <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10591,7 +10582,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10645,7 +10636,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10659,7 +10650,7 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10679,7 +10670,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10789,7 +10780,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -10803,7 +10794,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10878,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -10892,7 +10883,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -10912,7 +10903,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -10926,7 +10917,7 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10960,13 +10951,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11014,12 +11005,12 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -11028,7 +11019,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -11042,7 +11033,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -11056,7 +11047,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -11090,12 +11081,12 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -11124,13 +11115,13 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11144,13 +11135,13 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11192,7 +11183,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -11212,7 +11203,7 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -11226,13 +11217,13 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11274,7 +11265,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
@@ -11320,7 +11311,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11328,7 +11319,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -11342,7 +11333,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -11368,7 +11359,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11424,7 +11415,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -11653,22 +11644,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -11720,22 +11711,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -11796,7 +11787,7 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -11810,7 +11801,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -11830,7 +11821,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -11850,7 +11841,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -11870,7 +11861,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11878,7 +11869,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -11892,13 +11883,13 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
+        <v>740</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>741</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -12278,7 +12269,7 @@
         <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -12445,8 +12436,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12516,7 +12507,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12524,18 +12515,18 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>746</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -12544,13 +12535,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12564,7 +12555,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -12584,7 +12575,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12592,13 +12583,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12620,13 +12611,13 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12640,7 +12631,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -12654,18 +12645,18 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
+        <v>754</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
         <v>755</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -12674,7 +12665,7 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -12688,7 +12679,7 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -12699,7 +12690,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -12714,12 +12705,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -12734,7 +12725,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12742,7 +12733,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -12756,13 +12747,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
+        <v>760</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>761</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12776,7 +12767,7 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -12790,13 +12781,13 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>765</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12804,7 +12795,7 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -12824,13 +12815,13 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
+        <v>766</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>767</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12838,7 +12829,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -12858,7 +12849,7 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -12892,13 +12883,13 @@
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>769</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -12906,13 +12897,13 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>770</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -12920,13 +12911,13 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>771</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -12934,7 +12925,7 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
@@ -12956,7 +12947,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -14378,7 +14369,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -16178,7 +16169,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -17140,7 +17131,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -17518,7 +17509,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -18506,7 +18497,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -18920,7 +18911,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -19659,7 +19650,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -19825,7 +19816,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -20107,7 +20098,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -21033,7 +21024,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -21307,7 +21298,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>

--- a/Tennis/WTA Tour/Caroline Wozniacki.xlsx
+++ b/Tennis/WTA Tour/Caroline Wozniacki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9809" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DDD615-8B50-420A-B2A0-92C36468EBAD}"/>
+  <xr:revisionPtr revIDLastSave="9813" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68145426-CC74-4D16-B3B0-532BE5490C76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -2035,9 +2035,6 @@
     <t>7-5 6-7(3) 6-4</t>
   </si>
   <si>
-    <t>INTERNATIONAUX DE STRASBOURG</t>
-  </si>
-  <si>
     <t>Shelby Rogers (USA)</t>
   </si>
   <si>
@@ -2194,9 +2191,6 @@
     <t>6-4 1-6 7-5</t>
   </si>
   <si>
-    <t>Ekaterina Makarova (RUSSIA)</t>
-  </si>
-  <si>
     <t>5-7 6-2 7-6(4)</t>
   </si>
   <si>
@@ -2375,6 +2369,12 @@
   </si>
   <si>
     <t>Daria Kasatkina (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>STRASBOURG GRAND PRIX</t>
+  </si>
+  <si>
+    <t>BILLIE JEAN KING CUP</t>
   </si>
 </sst>
 </file>
@@ -5300,7 +5300,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>773</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
@@ -5436,7 +5436,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -6099,7 +6099,7 @@
         <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -6555,7 +6555,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -7623,7 +7623,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -8518,13 +8518,13 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -8783,7 +8783,7 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>660</v>
+        <v>772</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -9141,13 +9141,13 @@
         <v>44</v>
       </c>
       <c r="D49" t="s">
+        <v>660</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
         <v>661</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -9161,13 +9161,13 @@
         <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -9175,7 +9175,7 @@
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -9209,7 +9209,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -9223,7 +9223,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -9271,7 +9271,7 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -9285,7 +9285,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -9313,7 +9313,7 @@
         <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -9347,7 +9347,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9361,7 +9361,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9381,7 +9381,7 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9395,7 +9395,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9403,7 +9403,7 @@
         <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -9417,13 +9417,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
+        <v>675</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
         <v>676</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9451,7 +9451,7 @@
         <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -9541,7 +9541,7 @@
         <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -9575,7 +9575,7 @@
         <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -9595,7 +9595,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9609,7 +9609,7 @@
         <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -9629,7 +9629,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9671,7 +9671,7 @@
         <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>9</v>
@@ -9697,7 +9697,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
         <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>641</v>
@@ -9779,7 +9779,7 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -9851,8 +9851,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9924,7 +9924,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -9972,7 +9972,7 @@
         <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -9986,13 +9986,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
+        <v>690</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>691</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10034,7 +10034,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -10062,7 +10062,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10076,7 +10076,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -10090,7 +10090,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
@@ -10116,7 +10116,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10158,7 +10158,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
         <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -10192,7 +10192,7 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -10200,7 +10200,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -10226,7 +10226,7 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10240,7 +10240,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -10274,12 +10274,12 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -10302,13 +10302,13 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -10356,7 +10356,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,13 +10384,13 @@
         <v>85</v>
       </c>
       <c r="D42" t="s">
+        <v>705</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>706</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10398,7 +10398,7 @@
         <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -10426,13 +10426,13 @@
         <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10474,7 +10474,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -10494,7 +10494,7 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10502,13 +10502,13 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10536,13 +10536,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>713</v>
+        <v>241</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10556,13 +10556,13 @@
         <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10582,7 +10582,7 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10636,7 +10636,7 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -10650,7 +10650,7 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -10670,7 +10670,7 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10780,7 +10780,7 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -10794,7 +10794,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -10825,7 +10825,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10869,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -10883,7 +10883,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -10903,7 +10903,7 @@
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -10917,7 +10917,7 @@
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -10951,13 +10951,13 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11005,12 +11005,12 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -11019,7 +11019,7 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -11033,7 +11033,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -11047,7 +11047,7 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -11081,12 +11081,12 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -11115,13 +11115,13 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11135,13 +11135,13 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -11183,7 +11183,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -11203,7 +11203,7 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -11217,13 +11217,13 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>9</v>
@@ -11311,7 +11311,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -11319,7 +11319,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -11333,7 +11333,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>9</v>
@@ -11359,7 +11359,7 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -11415,7 +11415,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -11644,22 +11644,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -11711,22 +11711,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -11787,7 +11787,7 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -11801,7 +11801,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
@@ -11821,7 +11821,7 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
@@ -11841,7 +11841,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -11861,7 +11861,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11869,7 +11869,7 @@
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -11883,13 +11883,13 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -12269,7 +12269,7 @@
         <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -12436,7 +12436,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -12507,7 +12507,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12515,18 +12515,18 @@
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -12535,13 +12535,13 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12555,7 +12555,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -12575,7 +12575,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12583,13 +12583,13 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
+        <v>747</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>749</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12611,13 +12611,13 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12631,7 +12631,7 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -12645,18 +12645,18 @@
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -12665,7 +12665,7 @@
         <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -12679,7 +12679,7 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -12705,12 +12705,12 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -12725,7 +12725,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12733,7 +12733,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -12747,13 +12747,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12767,7 +12767,7 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -12781,13 +12781,13 @@
         <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12795,7 +12795,7 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -12815,13 +12815,13 @@
         <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -12829,7 +12829,7 @@
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>9</v>
@@ -12849,7 +12849,7 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -12883,7 +12883,7 @@
         <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -12897,7 +12897,7 @@
         <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -12911,7 +12911,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -12925,7 +12925,7 @@
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>9</v>
@@ -12947,7 +12947,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -13480,7 +13480,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -14271,7 +14271,7 @@
   </sheetPr>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -17509,7 +17509,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -18312,7 +18312,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18497,7 +18497,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -18911,7 +18911,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -19650,7 +19650,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -19816,7 +19816,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -20098,7 +20098,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -20830,7 +20830,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21024,7 +21024,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -21298,7 +21298,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
